--- a/Porosity-Permeability.xlsx
+++ b/Porosity-Permeability.xlsx
@@ -1,13 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - King Fahd University of Petroleum &amp; Minerals (KFUPM)\R code\Publication\Rforgeosciences\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD4C565-F056-4ACC-A88D-B8DDEDD8A2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1)" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miOZWBvwAPZ2chBADatCxVwnQ7T4A=="/>
     </ext>
@@ -16,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Depth (m)</t>
   </si>
@@ -26,28 +44,25 @@
   <si>
     <t>Permeability</t>
   </si>
-  <si>
-    <t>Coofficient of Correlation</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -57,11 +72,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -75,8 +96,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -86,6 +109,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -100,6 +124,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -114,6 +139,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -128,62 +154,66 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -373,29 +403,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.5"/>
-    <col customWidth="1" min="2" max="2" width="8.13"/>
-    <col customWidth="1" min="3" max="3" width="13.0"/>
-    <col customWidth="1" min="4" max="5" width="7.75"/>
-    <col customWidth="1" min="6" max="6" width="19.0"/>
-    <col customWidth="1" min="7" max="7" width="13.0"/>
-    <col customWidth="1" min="8" max="30" width="7.63"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="8.09765625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="5" width="7.69921875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="30" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,15 +465,15 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="B2" s="5">
-        <v>7.1754</v>
+        <v>7.1753999999999998</v>
       </c>
       <c r="C2" s="6">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -471,15 +503,15 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>1510.0</v>
+        <v>1510</v>
       </c>
       <c r="B3" s="8">
         <v>10.418000000000001</v>
       </c>
       <c r="C3" s="9">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -509,15 +541,15 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>1520.0</v>
+        <v>1520</v>
       </c>
       <c r="B4" s="8">
         <v>11.5542</v>
       </c>
       <c r="C4" s="9">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -547,15 +579,15 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>1540.0</v>
+        <v>1540</v>
       </c>
       <c r="B5" s="8">
-        <v>6.217200000000012</v>
+        <v>6.2172000000000116</v>
       </c>
       <c r="C5" s="9">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -585,15 +617,15 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>1550.0</v>
+        <v>1550</v>
       </c>
       <c r="B6" s="8">
-        <v>12.4202</v>
+        <v>12.420199999999999</v>
       </c>
       <c r="C6" s="9">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -623,25 +655,20 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>1560.0</v>
+        <v>1560</v>
       </c>
       <c r="B7" s="8">
-        <v>4.404400000000005</v>
+        <v>4.4044000000000052</v>
       </c>
       <c r="C7" s="9">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3">
-        <f>CORREL(B2:B50,C2:C50)</f>
-        <v>0.7445120567</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -666,15 +693,15 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>1570.0</v>
+        <v>1570</v>
       </c>
       <c r="B8" s="8">
         <v>7.7710000000000035</v>
       </c>
       <c r="C8" s="9">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -704,15 +731,15 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>1580.0</v>
+        <v>1580</v>
       </c>
       <c r="B9" s="8">
         <v>6.075400000000009</v>
       </c>
       <c r="C9" s="9">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -742,15 +769,15 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>1590.0</v>
+        <v>1590</v>
       </c>
       <c r="B10" s="8">
         <v>7.7710000000000035</v>
       </c>
       <c r="C10" s="9">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -780,15 +807,15 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>1600.0</v>
+        <v>1600</v>
       </c>
       <c r="B11" s="8">
-        <v>11.8138</v>
+        <v>11.813800000000001</v>
       </c>
       <c r="C11" s="9">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -818,15 +845,15 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>1610.0</v>
+        <v>1610</v>
       </c>
       <c r="B12" s="8">
         <v>12.0136</v>
       </c>
       <c r="C12" s="9">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -856,15 +883,15 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>1630.0</v>
+        <v>1630</v>
       </c>
       <c r="B13" s="8">
-        <v>7.968799999999992</v>
+        <v>7.9687999999999919</v>
       </c>
       <c r="C13" s="9">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -894,15 +921,15 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>1640.0</v>
+        <v>1640</v>
       </c>
       <c r="B14" s="8">
         <v>7.0210000000000035</v>
       </c>
       <c r="C14" s="9">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -932,15 +959,15 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>1650.0</v>
+        <v>1650</v>
       </c>
       <c r="B15" s="8">
-        <v>8.863800000000001</v>
+        <v>8.8638000000000012</v>
       </c>
       <c r="C15" s="9">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -970,15 +997,15 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>1660.0</v>
+        <v>1660</v>
       </c>
       <c r="B16" s="8">
-        <v>8.626400000000004</v>
+        <v>8.6264000000000038</v>
       </c>
       <c r="C16" s="9">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1008,15 +1035,15 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>1680.0</v>
+        <v>1680</v>
       </c>
       <c r="B17" s="8">
-        <v>11.5348</v>
+        <v>11.534800000000001</v>
       </c>
       <c r="C17" s="9">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1046,15 +1073,15 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>1690.0</v>
+        <v>1690</v>
       </c>
       <c r="B18" s="8">
         <v>8.996599999999999</v>
       </c>
       <c r="C18" s="9">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1084,15 +1111,15 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="B19" s="8">
-        <v>6.418000000000002</v>
+        <v>6.4180000000000019</v>
       </c>
       <c r="C19" s="9">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1122,15 +1149,15 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>1710.0</v>
+        <v>1710</v>
       </c>
       <c r="B20" s="8">
-        <v>6.418000000000002</v>
+        <v>6.4180000000000019</v>
       </c>
       <c r="C20" s="9">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1160,15 +1187,15 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>1720.0</v>
+        <v>1720</v>
       </c>
       <c r="B21" s="8">
-        <v>9.885200000000005</v>
+        <v>9.8852000000000046</v>
       </c>
       <c r="C21" s="9">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1198,15 +1225,15 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>1730.0</v>
+        <v>1730</v>
       </c>
       <c r="B22" s="8">
         <v>8.996599999999999</v>
       </c>
       <c r="C22" s="9">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1236,15 +1263,15 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>1740.0</v>
+        <v>1740</v>
       </c>
       <c r="B23" s="8">
         <v>11.706800000000003</v>
       </c>
       <c r="C23" s="9">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1274,15 +1301,15 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>1750.0</v>
+        <v>1750</v>
       </c>
       <c r="B24" s="8">
-        <v>5.621199999999999</v>
+        <v>5.6211999999999991</v>
       </c>
       <c r="C24" s="9">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1312,15 +1339,15 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>1760.0</v>
+        <v>1760</v>
       </c>
       <c r="B25" s="8">
         <v>5.98</v>
       </c>
       <c r="C25" s="9">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1350,15 +1377,15 @@
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>1780.0</v>
+        <v>1780</v>
       </c>
       <c r="B26" s="8">
-        <v>7.113999999999996</v>
+        <v>7.1139999999999963</v>
       </c>
       <c r="C26" s="9">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1388,15 +1415,15 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>1790.0</v>
+        <v>1790</v>
       </c>
       <c r="B27" s="8">
         <v>10.122799999999998</v>
       </c>
       <c r="C27" s="9">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1426,15 +1453,15 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="B28" s="8">
         <v>12.5542</v>
       </c>
       <c r="C28" s="9">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1464,15 +1491,15 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>1810.0</v>
+        <v>1810</v>
       </c>
       <c r="B29" s="8">
-        <v>7.7654</v>
+        <v>7.7653999999999996</v>
       </c>
       <c r="C29" s="9">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1502,15 +1529,15 @@
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>1820.0</v>
+        <v>1820</v>
       </c>
       <c r="B30" s="8">
-        <v>8.863999999999997</v>
+        <v>8.8639999999999972</v>
       </c>
       <c r="C30" s="9">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1540,15 +1567,15 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>1830.0</v>
+        <v>1830</v>
       </c>
       <c r="B31" s="8">
-        <v>8.863999999999997</v>
+        <v>8.8639999999999972</v>
       </c>
       <c r="C31" s="9">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1578,15 +1605,15 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>1840.0</v>
+        <v>1840</v>
       </c>
       <c r="B32" s="8">
         <v>9.98</v>
       </c>
       <c r="C32" s="9">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1616,15 +1643,15 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>1850.0</v>
+        <v>1850</v>
       </c>
       <c r="B33" s="8">
         <v>6.6846000000000005</v>
       </c>
       <c r="C33" s="9">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1654,15 +1681,15 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>1860.0</v>
+        <v>1860</v>
       </c>
       <c r="B34" s="8">
-        <v>7.7654</v>
+        <v>7.7653999999999996</v>
       </c>
       <c r="C34" s="9">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1692,15 +1719,15 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>1870.0</v>
+        <v>1870</v>
       </c>
       <c r="B35" s="8">
-        <v>5.545</v>
+        <v>5.5449999999999999</v>
       </c>
       <c r="C35" s="9">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1730,15 +1757,15 @@
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>1880.0</v>
+        <v>1880</v>
       </c>
       <c r="B36" s="8">
-        <v>8.788400000000001</v>
+        <v>8.7884000000000011</v>
       </c>
       <c r="C36" s="9">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1768,15 +1795,15 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>1890.0</v>
+        <v>1890</v>
       </c>
       <c r="B37" s="8">
-        <v>6.769399999999996</v>
+        <v>6.7693999999999956</v>
       </c>
       <c r="C37" s="9">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1806,15 +1833,15 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>1910.0</v>
+        <v>1910</v>
       </c>
       <c r="B38" s="8">
-        <v>5.8832</v>
+        <v>5.8832000000000004</v>
       </c>
       <c r="C38" s="9">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1844,15 +1871,15 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>1920.0</v>
+        <v>1920</v>
       </c>
       <c r="B39" s="8">
         <v>4.1448</v>
       </c>
       <c r="C39" s="9">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1882,15 +1909,15 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>1930.0</v>
+        <v>1930</v>
       </c>
       <c r="B40" s="8">
-        <v>7.885200000000005</v>
+        <v>7.8852000000000046</v>
       </c>
       <c r="C40" s="9">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1920,15 +1947,15 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>1940.0</v>
+        <v>1940</v>
       </c>
       <c r="B41" s="8">
-        <v>7.885200000000005</v>
+        <v>7.8852000000000046</v>
       </c>
       <c r="C41" s="9">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1958,15 +1985,15 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
-        <v>1950.0</v>
+        <v>1950</v>
       </c>
       <c r="B42" s="8">
-        <v>6.122799999999997</v>
+        <v>6.1227999999999971</v>
       </c>
       <c r="C42" s="9">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1996,15 +2023,15 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>1960.0</v>
+        <v>1960</v>
       </c>
       <c r="B43" s="8">
-        <v>8.398400000000002</v>
+        <v>8.3984000000000023</v>
       </c>
       <c r="C43" s="9">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2034,15 +2061,15 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
-        <v>1970.0</v>
+        <v>1970</v>
       </c>
       <c r="B44" s="8">
-        <v>5.6364</v>
+        <v>5.6364000000000001</v>
       </c>
       <c r="C44" s="9">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2072,15 +2099,15 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>1980.0</v>
+        <v>1980</v>
       </c>
       <c r="B45" s="8">
-        <v>8.471599999999999</v>
+        <v>8.4715999999999987</v>
       </c>
       <c r="C45" s="9">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2110,15 +2137,15 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="B46" s="8">
-        <v>2.8446</v>
+        <v>2.8445999999999998</v>
       </c>
       <c r="C46" s="9">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2148,15 +2175,15 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="B47" s="8">
         <v>11.3314</v>
       </c>
       <c r="C47" s="9">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2186,15 +2213,15 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="B48" s="8">
         <v>10.718200000000001</v>
       </c>
       <c r="C48" s="9">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2224,15 +2251,15 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
-        <v>2030.0</v>
+        <v>2030</v>
       </c>
       <c r="B49" s="8">
-        <v>6.6138</v>
+        <v>6.6138000000000003</v>
       </c>
       <c r="C49" s="9">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2262,20 +2289,20 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>2040.0</v>
+        <v>2040</v>
       </c>
       <c r="B50" s="10">
-        <v>6.1886</v>
+        <v>6.1886000000000001</v>
       </c>
       <c r="C50" s="11">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="12">
         <f>B50+4.5</f>
-        <v>10.6886</v>
+        <v>10.688600000000001</v>
       </c>
       <c r="F50" s="13">
         <f>C50+20</f>
@@ -2306,7 +2333,7 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2338,7 +2365,7 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2370,7 +2397,7 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2402,7 +2429,7 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2434,7 +2461,7 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2466,7 +2493,7 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2498,7 +2525,7 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2530,7 +2557,7 @@
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2562,7 +2589,7 @@
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2594,7 +2621,7 @@
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2626,7 +2653,7 @@
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2658,7 +2685,7 @@
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2690,7 +2717,7 @@
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2722,7 +2749,7 @@
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2754,7 +2781,7 @@
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2786,7 +2813,7 @@
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2818,7 +2845,7 @@
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2850,7 +2877,7 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2882,7 +2909,7 @@
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2914,7 +2941,7 @@
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2946,7 +2973,7 @@
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2978,7 +3005,7 @@
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3010,7 +3037,7 @@
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3042,7 +3069,7 @@
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3074,7 +3101,7 @@
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3106,7 +3133,7 @@
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3138,7 +3165,7 @@
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3170,7 +3197,7 @@
       <c r="AC77" s="3"/>
       <c r="AD77" s="3"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3202,7 +3229,7 @@
       <c r="AC78" s="3"/>
       <c r="AD78" s="3"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3234,7 +3261,7 @@
       <c r="AC79" s="3"/>
       <c r="AD79" s="3"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3266,7 +3293,7 @@
       <c r="AC80" s="3"/>
       <c r="AD80" s="3"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3298,7 +3325,7 @@
       <c r="AC81" s="3"/>
       <c r="AD81" s="3"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3330,7 +3357,7 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3362,7 +3389,7 @@
       <c r="AC83" s="3"/>
       <c r="AD83" s="3"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3394,7 +3421,7 @@
       <c r="AC84" s="3"/>
       <c r="AD84" s="3"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3426,7 +3453,7 @@
       <c r="AC85" s="3"/>
       <c r="AD85" s="3"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3458,7 +3485,7 @@
       <c r="AC86" s="3"/>
       <c r="AD86" s="3"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3490,7 +3517,7 @@
       <c r="AC87" s="3"/>
       <c r="AD87" s="3"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3522,7 +3549,7 @@
       <c r="AC88" s="3"/>
       <c r="AD88" s="3"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3554,7 +3581,7 @@
       <c r="AC89" s="3"/>
       <c r="AD89" s="3"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3586,7 +3613,7 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3618,7 +3645,7 @@
       <c r="AC91" s="3"/>
       <c r="AD91" s="3"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3650,7 +3677,7 @@
       <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3682,7 +3709,7 @@
       <c r="AC93" s="3"/>
       <c r="AD93" s="3"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3714,7 +3741,7 @@
       <c r="AC94" s="3"/>
       <c r="AD94" s="3"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3746,7 +3773,7 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3778,7 +3805,7 @@
       <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3810,7 +3837,7 @@
       <c r="AC97" s="3"/>
       <c r="AD97" s="3"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3842,7 +3869,7 @@
       <c r="AC98" s="3"/>
       <c r="AD98" s="3"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3874,7 +3901,7 @@
       <c r="AC99" s="3"/>
       <c r="AD99" s="3"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3906,7 +3933,7 @@
       <c r="AC100" s="3"/>
       <c r="AD100" s="3"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3938,7 +3965,7 @@
       <c r="AC101" s="3"/>
       <c r="AD101" s="3"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3970,7 +3997,7 @@
       <c r="AC102" s="3"/>
       <c r="AD102" s="3"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4002,7 +4029,7 @@
       <c r="AC103" s="3"/>
       <c r="AD103" s="3"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4034,7 +4061,7 @@
       <c r="AC104" s="3"/>
       <c r="AD104" s="3"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4066,7 +4093,7 @@
       <c r="AC105" s="3"/>
       <c r="AD105" s="3"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4098,7 +4125,7 @@
       <c r="AC106" s="3"/>
       <c r="AD106" s="3"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4130,7 +4157,7 @@
       <c r="AC107" s="3"/>
       <c r="AD107" s="3"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4162,7 +4189,7 @@
       <c r="AC108" s="3"/>
       <c r="AD108" s="3"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4194,7 +4221,7 @@
       <c r="AC109" s="3"/>
       <c r="AD109" s="3"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4226,7 +4253,7 @@
       <c r="AC110" s="3"/>
       <c r="AD110" s="3"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4258,7 +4285,7 @@
       <c r="AC111" s="3"/>
       <c r="AD111" s="3"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4290,7 +4317,7 @@
       <c r="AC112" s="3"/>
       <c r="AD112" s="3"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4322,7 +4349,7 @@
       <c r="AC113" s="3"/>
       <c r="AD113" s="3"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4354,7 +4381,7 @@
       <c r="AC114" s="3"/>
       <c r="AD114" s="3"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4386,7 +4413,7 @@
       <c r="AC115" s="3"/>
       <c r="AD115" s="3"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4418,7 +4445,7 @@
       <c r="AC116" s="3"/>
       <c r="AD116" s="3"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4450,7 +4477,7 @@
       <c r="AC117" s="3"/>
       <c r="AD117" s="3"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4482,7 +4509,7 @@
       <c r="AC118" s="3"/>
       <c r="AD118" s="3"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4514,7 +4541,7 @@
       <c r="AC119" s="3"/>
       <c r="AD119" s="3"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4546,7 +4573,7 @@
       <c r="AC120" s="3"/>
       <c r="AD120" s="3"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4578,7 +4605,7 @@
       <c r="AC121" s="3"/>
       <c r="AD121" s="3"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4610,7 +4637,7 @@
       <c r="AC122" s="3"/>
       <c r="AD122" s="3"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4642,7 +4669,7 @@
       <c r="AC123" s="3"/>
       <c r="AD123" s="3"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4674,7 +4701,7 @@
       <c r="AC124" s="3"/>
       <c r="AD124" s="3"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4706,7 +4733,7 @@
       <c r="AC125" s="3"/>
       <c r="AD125" s="3"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4738,7 +4765,7 @@
       <c r="AC126" s="3"/>
       <c r="AD126" s="3"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4770,7 +4797,7 @@
       <c r="AC127" s="3"/>
       <c r="AD127" s="3"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4802,7 +4829,7 @@
       <c r="AC128" s="3"/>
       <c r="AD128" s="3"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4834,7 +4861,7 @@
       <c r="AC129" s="3"/>
       <c r="AD129" s="3"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4866,7 +4893,7 @@
       <c r="AC130" s="3"/>
       <c r="AD130" s="3"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4898,7 +4925,7 @@
       <c r="AC131" s="3"/>
       <c r="AD131" s="3"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4930,7 +4957,7 @@
       <c r="AC132" s="3"/>
       <c r="AD132" s="3"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4962,7 +4989,7 @@
       <c r="AC133" s="3"/>
       <c r="AD133" s="3"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4994,7 +5021,7 @@
       <c r="AC134" s="3"/>
       <c r="AD134" s="3"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5026,7 +5053,7 @@
       <c r="AC135" s="3"/>
       <c r="AD135" s="3"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -5058,7 +5085,7 @@
       <c r="AC136" s="3"/>
       <c r="AD136" s="3"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5090,7 +5117,7 @@
       <c r="AC137" s="3"/>
       <c r="AD137" s="3"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5122,7 +5149,7 @@
       <c r="AC138" s="3"/>
       <c r="AD138" s="3"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -5154,7 +5181,7 @@
       <c r="AC139" s="3"/>
       <c r="AD139" s="3"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5186,7 +5213,7 @@
       <c r="AC140" s="3"/>
       <c r="AD140" s="3"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5218,7 +5245,7 @@
       <c r="AC141" s="3"/>
       <c r="AD141" s="3"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5250,7 +5277,7 @@
       <c r="AC142" s="3"/>
       <c r="AD142" s="3"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5282,7 +5309,7 @@
       <c r="AC143" s="3"/>
       <c r="AD143" s="3"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5314,7 +5341,7 @@
       <c r="AC144" s="3"/>
       <c r="AD144" s="3"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5346,7 +5373,7 @@
       <c r="AC145" s="3"/>
       <c r="AD145" s="3"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5378,7 +5405,7 @@
       <c r="AC146" s="3"/>
       <c r="AD146" s="3"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5410,7 +5437,7 @@
       <c r="AC147" s="3"/>
       <c r="AD147" s="3"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5442,7 +5469,7 @@
       <c r="AC148" s="3"/>
       <c r="AD148" s="3"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5474,7 +5501,7 @@
       <c r="AC149" s="3"/>
       <c r="AD149" s="3"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -5506,7 +5533,7 @@
       <c r="AC150" s="3"/>
       <c r="AD150" s="3"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -5538,7 +5565,7 @@
       <c r="AC151" s="3"/>
       <c r="AD151" s="3"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5570,7 +5597,7 @@
       <c r="AC152" s="3"/>
       <c r="AD152" s="3"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5602,7 +5629,7 @@
       <c r="AC153" s="3"/>
       <c r="AD153" s="3"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5634,7 +5661,7 @@
       <c r="AC154" s="3"/>
       <c r="AD154" s="3"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5666,7 +5693,7 @@
       <c r="AC155" s="3"/>
       <c r="AD155" s="3"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5698,7 +5725,7 @@
       <c r="AC156" s="3"/>
       <c r="AD156" s="3"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5730,7 +5757,7 @@
       <c r="AC157" s="3"/>
       <c r="AD157" s="3"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5762,7 +5789,7 @@
       <c r="AC158" s="3"/>
       <c r="AD158" s="3"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5794,7 +5821,7 @@
       <c r="AC159" s="3"/>
       <c r="AD159" s="3"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5826,7 +5853,7 @@
       <c r="AC160" s="3"/>
       <c r="AD160" s="3"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5858,7 +5885,7 @@
       <c r="AC161" s="3"/>
       <c r="AD161" s="3"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5890,7 +5917,7 @@
       <c r="AC162" s="3"/>
       <c r="AD162" s="3"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5922,7 +5949,7 @@
       <c r="AC163" s="3"/>
       <c r="AD163" s="3"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5954,7 +5981,7 @@
       <c r="AC164" s="3"/>
       <c r="AD164" s="3"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5986,7 +6013,7 @@
       <c r="AC165" s="3"/>
       <c r="AD165" s="3"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -6018,7 +6045,7 @@
       <c r="AC166" s="3"/>
       <c r="AD166" s="3"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -6050,7 +6077,7 @@
       <c r="AC167" s="3"/>
       <c r="AD167" s="3"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -6082,7 +6109,7 @@
       <c r="AC168" s="3"/>
       <c r="AD168" s="3"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -6114,7 +6141,7 @@
       <c r="AC169" s="3"/>
       <c r="AD169" s="3"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -6146,7 +6173,7 @@
       <c r="AC170" s="3"/>
       <c r="AD170" s="3"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -6178,7 +6205,7 @@
       <c r="AC171" s="3"/>
       <c r="AD171" s="3"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -6210,7 +6237,7 @@
       <c r="AC172" s="3"/>
       <c r="AD172" s="3"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -6242,7 +6269,7 @@
       <c r="AC173" s="3"/>
       <c r="AD173" s="3"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -6274,7 +6301,7 @@
       <c r="AC174" s="3"/>
       <c r="AD174" s="3"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -6306,7 +6333,7 @@
       <c r="AC175" s="3"/>
       <c r="AD175" s="3"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -6338,7 +6365,7 @@
       <c r="AC176" s="3"/>
       <c r="AD176" s="3"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -6370,7 +6397,7 @@
       <c r="AC177" s="3"/>
       <c r="AD177" s="3"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -6402,7 +6429,7 @@
       <c r="AC178" s="3"/>
       <c r="AD178" s="3"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -6434,7 +6461,7 @@
       <c r="AC179" s="3"/>
       <c r="AD179" s="3"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -6466,7 +6493,7 @@
       <c r="AC180" s="3"/>
       <c r="AD180" s="3"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -6498,7 +6525,7 @@
       <c r="AC181" s="3"/>
       <c r="AD181" s="3"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -6530,7 +6557,7 @@
       <c r="AC182" s="3"/>
       <c r="AD182" s="3"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -6562,7 +6589,7 @@
       <c r="AC183" s="3"/>
       <c r="AD183" s="3"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -6594,7 +6621,7 @@
       <c r="AC184" s="3"/>
       <c r="AD184" s="3"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -6626,7 +6653,7 @@
       <c r="AC185" s="3"/>
       <c r="AD185" s="3"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -6658,7 +6685,7 @@
       <c r="AC186" s="3"/>
       <c r="AD186" s="3"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -6690,7 +6717,7 @@
       <c r="AC187" s="3"/>
       <c r="AD187" s="3"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -6722,7 +6749,7 @@
       <c r="AC188" s="3"/>
       <c r="AD188" s="3"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -6754,7 +6781,7 @@
       <c r="AC189" s="3"/>
       <c r="AD189" s="3"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -6786,7 +6813,7 @@
       <c r="AC190" s="3"/>
       <c r="AD190" s="3"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -6818,7 +6845,7 @@
       <c r="AC191" s="3"/>
       <c r="AD191" s="3"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -6850,7 +6877,7 @@
       <c r="AC192" s="3"/>
       <c r="AD192" s="3"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -6882,7 +6909,7 @@
       <c r="AC193" s="3"/>
       <c r="AD193" s="3"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -6914,7 +6941,7 @@
       <c r="AC194" s="3"/>
       <c r="AD194" s="3"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -6946,7 +6973,7 @@
       <c r="AC195" s="3"/>
       <c r="AD195" s="3"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -6978,7 +7005,7 @@
       <c r="AC196" s="3"/>
       <c r="AD196" s="3"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -7010,7 +7037,7 @@
       <c r="AC197" s="3"/>
       <c r="AD197" s="3"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -7042,7 +7069,7 @@
       <c r="AC198" s="3"/>
       <c r="AD198" s="3"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -7074,7 +7101,7 @@
       <c r="AC199" s="3"/>
       <c r="AD199" s="3"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -7106,7 +7133,7 @@
       <c r="AC200" s="3"/>
       <c r="AD200" s="3"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -7138,7 +7165,7 @@
       <c r="AC201" s="3"/>
       <c r="AD201" s="3"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -7170,7 +7197,7 @@
       <c r="AC202" s="3"/>
       <c r="AD202" s="3"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -7202,7 +7229,7 @@
       <c r="AC203" s="3"/>
       <c r="AD203" s="3"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -7234,7 +7261,7 @@
       <c r="AC204" s="3"/>
       <c r="AD204" s="3"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -7266,7 +7293,7 @@
       <c r="AC205" s="3"/>
       <c r="AD205" s="3"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -7298,7 +7325,7 @@
       <c r="AC206" s="3"/>
       <c r="AD206" s="3"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -7330,7 +7357,7 @@
       <c r="AC207" s="3"/>
       <c r="AD207" s="3"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -7362,7 +7389,7 @@
       <c r="AC208" s="3"/>
       <c r="AD208" s="3"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -7394,7 +7421,7 @@
       <c r="AC209" s="3"/>
       <c r="AD209" s="3"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -7426,7 +7453,7 @@
       <c r="AC210" s="3"/>
       <c r="AD210" s="3"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -7458,7 +7485,7 @@
       <c r="AC211" s="3"/>
       <c r="AD211" s="3"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -7490,7 +7517,7 @@
       <c r="AC212" s="3"/>
       <c r="AD212" s="3"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -7522,7 +7549,7 @@
       <c r="AC213" s="3"/>
       <c r="AD213" s="3"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -7554,7 +7581,7 @@
       <c r="AC214" s="3"/>
       <c r="AD214" s="3"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -7586,7 +7613,7 @@
       <c r="AC215" s="3"/>
       <c r="AD215" s="3"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -7618,7 +7645,7 @@
       <c r="AC216" s="3"/>
       <c r="AD216" s="3"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -7650,7 +7677,7 @@
       <c r="AC217" s="3"/>
       <c r="AD217" s="3"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -7682,7 +7709,7 @@
       <c r="AC218" s="3"/>
       <c r="AD218" s="3"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -7714,7 +7741,7 @@
       <c r="AC219" s="3"/>
       <c r="AD219" s="3"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -7746,7 +7773,7 @@
       <c r="AC220" s="3"/>
       <c r="AD220" s="3"/>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
+    <row r="221" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -7778,7 +7805,7 @@
       <c r="AC221" s="3"/>
       <c r="AD221" s="3"/>
     </row>
-    <row r="222" ht="12.75" customHeight="1">
+    <row r="222" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -7810,7 +7837,7 @@
       <c r="AC222" s="3"/>
       <c r="AD222" s="3"/>
     </row>
-    <row r="223" ht="12.75" customHeight="1">
+    <row r="223" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -7842,7 +7869,7 @@
       <c r="AC223" s="3"/>
       <c r="AD223" s="3"/>
     </row>
-    <row r="224" ht="12.75" customHeight="1">
+    <row r="224" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -7874,7 +7901,7 @@
       <c r="AC224" s="3"/>
       <c r="AD224" s="3"/>
     </row>
-    <row r="225" ht="12.75" customHeight="1">
+    <row r="225" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -7906,7 +7933,7 @@
       <c r="AC225" s="3"/>
       <c r="AD225" s="3"/>
     </row>
-    <row r="226" ht="12.75" customHeight="1">
+    <row r="226" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -7938,7 +7965,7 @@
       <c r="AC226" s="3"/>
       <c r="AD226" s="3"/>
     </row>
-    <row r="227" ht="12.75" customHeight="1">
+    <row r="227" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -7970,7 +7997,7 @@
       <c r="AC227" s="3"/>
       <c r="AD227" s="3"/>
     </row>
-    <row r="228" ht="12.75" customHeight="1">
+    <row r="228" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -8002,7 +8029,7 @@
       <c r="AC228" s="3"/>
       <c r="AD228" s="3"/>
     </row>
-    <row r="229" ht="12.75" customHeight="1">
+    <row r="229" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -8034,7 +8061,7 @@
       <c r="AC229" s="3"/>
       <c r="AD229" s="3"/>
     </row>
-    <row r="230" ht="12.75" customHeight="1">
+    <row r="230" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -8066,7 +8093,7 @@
       <c r="AC230" s="3"/>
       <c r="AD230" s="3"/>
     </row>
-    <row r="231" ht="12.75" customHeight="1">
+    <row r="231" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -8098,7 +8125,7 @@
       <c r="AC231" s="3"/>
       <c r="AD231" s="3"/>
     </row>
-    <row r="232" ht="12.75" customHeight="1">
+    <row r="232" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -8130,7 +8157,7 @@
       <c r="AC232" s="3"/>
       <c r="AD232" s="3"/>
     </row>
-    <row r="233" ht="12.75" customHeight="1">
+    <row r="233" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -8162,7 +8189,7 @@
       <c r="AC233" s="3"/>
       <c r="AD233" s="3"/>
     </row>
-    <row r="234" ht="12.75" customHeight="1">
+    <row r="234" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -8194,7 +8221,7 @@
       <c r="AC234" s="3"/>
       <c r="AD234" s="3"/>
     </row>
-    <row r="235" ht="12.75" customHeight="1">
+    <row r="235" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -8226,7 +8253,7 @@
       <c r="AC235" s="3"/>
       <c r="AD235" s="3"/>
     </row>
-    <row r="236" ht="12.75" customHeight="1">
+    <row r="236" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -8258,7 +8285,7 @@
       <c r="AC236" s="3"/>
       <c r="AD236" s="3"/>
     </row>
-    <row r="237" ht="12.75" customHeight="1">
+    <row r="237" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -8290,7 +8317,7 @@
       <c r="AC237" s="3"/>
       <c r="AD237" s="3"/>
     </row>
-    <row r="238" ht="12.75" customHeight="1">
+    <row r="238" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -8322,7 +8349,7 @@
       <c r="AC238" s="3"/>
       <c r="AD238" s="3"/>
     </row>
-    <row r="239" ht="12.75" customHeight="1">
+    <row r="239" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -8354,7 +8381,7 @@
       <c r="AC239" s="3"/>
       <c r="AD239" s="3"/>
     </row>
-    <row r="240" ht="12.75" customHeight="1">
+    <row r="240" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -8386,7 +8413,7 @@
       <c r="AC240" s="3"/>
       <c r="AD240" s="3"/>
     </row>
-    <row r="241" ht="12.75" customHeight="1">
+    <row r="241" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -8418,7 +8445,7 @@
       <c r="AC241" s="3"/>
       <c r="AD241" s="3"/>
     </row>
-    <row r="242" ht="12.75" customHeight="1">
+    <row r="242" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -8450,7 +8477,7 @@
       <c r="AC242" s="3"/>
       <c r="AD242" s="3"/>
     </row>
-    <row r="243" ht="12.75" customHeight="1">
+    <row r="243" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -8482,7 +8509,7 @@
       <c r="AC243" s="3"/>
       <c r="AD243" s="3"/>
     </row>
-    <row r="244" ht="12.75" customHeight="1">
+    <row r="244" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -8514,7 +8541,7 @@
       <c r="AC244" s="3"/>
       <c r="AD244" s="3"/>
     </row>
-    <row r="245" ht="12.75" customHeight="1">
+    <row r="245" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -8546,7 +8573,7 @@
       <c r="AC245" s="3"/>
       <c r="AD245" s="3"/>
     </row>
-    <row r="246" ht="12.75" customHeight="1">
+    <row r="246" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -8578,7 +8605,7 @@
       <c r="AC246" s="3"/>
       <c r="AD246" s="3"/>
     </row>
-    <row r="247" ht="12.75" customHeight="1">
+    <row r="247" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -8610,7 +8637,7 @@
       <c r="AC247" s="3"/>
       <c r="AD247" s="3"/>
     </row>
-    <row r="248" ht="12.75" customHeight="1">
+    <row r="248" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -8642,7 +8669,7 @@
       <c r="AC248" s="3"/>
       <c r="AD248" s="3"/>
     </row>
-    <row r="249" ht="12.75" customHeight="1">
+    <row r="249" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -8674,7 +8701,7 @@
       <c r="AC249" s="3"/>
       <c r="AD249" s="3"/>
     </row>
-    <row r="250" ht="12.75" customHeight="1">
+    <row r="250" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -8706,7 +8733,7 @@
       <c r="AC250" s="3"/>
       <c r="AD250" s="3"/>
     </row>
-    <row r="251" ht="12.75" customHeight="1">
+    <row r="251" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -8738,7 +8765,7 @@
       <c r="AC251" s="3"/>
       <c r="AD251" s="3"/>
     </row>
-    <row r="252" ht="12.75" customHeight="1">
+    <row r="252" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -8770,7 +8797,7 @@
       <c r="AC252" s="3"/>
       <c r="AD252" s="3"/>
     </row>
-    <row r="253" ht="12.75" customHeight="1">
+    <row r="253" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -8802,7 +8829,7 @@
       <c r="AC253" s="3"/>
       <c r="AD253" s="3"/>
     </row>
-    <row r="254" ht="12.75" customHeight="1">
+    <row r="254" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -8834,7 +8861,7 @@
       <c r="AC254" s="3"/>
       <c r="AD254" s="3"/>
     </row>
-    <row r="255" ht="12.75" customHeight="1">
+    <row r="255" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -8866,7 +8893,7 @@
       <c r="AC255" s="3"/>
       <c r="AD255" s="3"/>
     </row>
-    <row r="256" ht="12.75" customHeight="1">
+    <row r="256" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -8898,7 +8925,7 @@
       <c r="AC256" s="3"/>
       <c r="AD256" s="3"/>
     </row>
-    <row r="257" ht="12.75" customHeight="1">
+    <row r="257" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -8930,7 +8957,7 @@
       <c r="AC257" s="3"/>
       <c r="AD257" s="3"/>
     </row>
-    <row r="258" ht="12.75" customHeight="1">
+    <row r="258" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -8962,7 +8989,7 @@
       <c r="AC258" s="3"/>
       <c r="AD258" s="3"/>
     </row>
-    <row r="259" ht="12.75" customHeight="1">
+    <row r="259" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -8994,7 +9021,7 @@
       <c r="AC259" s="3"/>
       <c r="AD259" s="3"/>
     </row>
-    <row r="260" ht="12.75" customHeight="1">
+    <row r="260" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -9026,7 +9053,7 @@
       <c r="AC260" s="3"/>
       <c r="AD260" s="3"/>
     </row>
-    <row r="261" ht="12.75" customHeight="1">
+    <row r="261" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -9058,7 +9085,7 @@
       <c r="AC261" s="3"/>
       <c r="AD261" s="3"/>
     </row>
-    <row r="262" ht="12.75" customHeight="1">
+    <row r="262" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -9090,7 +9117,7 @@
       <c r="AC262" s="3"/>
       <c r="AD262" s="3"/>
     </row>
-    <row r="263" ht="12.75" customHeight="1">
+    <row r="263" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -9122,7 +9149,7 @@
       <c r="AC263" s="3"/>
       <c r="AD263" s="3"/>
     </row>
-    <row r="264" ht="12.75" customHeight="1">
+    <row r="264" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -9154,7 +9181,7 @@
       <c r="AC264" s="3"/>
       <c r="AD264" s="3"/>
     </row>
-    <row r="265" ht="12.75" customHeight="1">
+    <row r="265" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -9186,7 +9213,7 @@
       <c r="AC265" s="3"/>
       <c r="AD265" s="3"/>
     </row>
-    <row r="266" ht="12.75" customHeight="1">
+    <row r="266" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -9218,7 +9245,7 @@
       <c r="AC266" s="3"/>
       <c r="AD266" s="3"/>
     </row>
-    <row r="267" ht="12.75" customHeight="1">
+    <row r="267" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -9250,7 +9277,7 @@
       <c r="AC267" s="3"/>
       <c r="AD267" s="3"/>
     </row>
-    <row r="268" ht="12.75" customHeight="1">
+    <row r="268" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -9282,7 +9309,7 @@
       <c r="AC268" s="3"/>
       <c r="AD268" s="3"/>
     </row>
-    <row r="269" ht="12.75" customHeight="1">
+    <row r="269" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -9314,7 +9341,7 @@
       <c r="AC269" s="3"/>
       <c r="AD269" s="3"/>
     </row>
-    <row r="270" ht="12.75" customHeight="1">
+    <row r="270" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -9346,7 +9373,7 @@
       <c r="AC270" s="3"/>
       <c r="AD270" s="3"/>
     </row>
-    <row r="271" ht="12.75" customHeight="1">
+    <row r="271" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -9378,7 +9405,7 @@
       <c r="AC271" s="3"/>
       <c r="AD271" s="3"/>
     </row>
-    <row r="272" ht="12.75" customHeight="1">
+    <row r="272" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -9410,7 +9437,7 @@
       <c r="AC272" s="3"/>
       <c r="AD272" s="3"/>
     </row>
-    <row r="273" ht="12.75" customHeight="1">
+    <row r="273" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -9442,7 +9469,7 @@
       <c r="AC273" s="3"/>
       <c r="AD273" s="3"/>
     </row>
-    <row r="274" ht="12.75" customHeight="1">
+    <row r="274" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -9474,7 +9501,7 @@
       <c r="AC274" s="3"/>
       <c r="AD274" s="3"/>
     </row>
-    <row r="275" ht="12.75" customHeight="1">
+    <row r="275" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -9506,7 +9533,7 @@
       <c r="AC275" s="3"/>
       <c r="AD275" s="3"/>
     </row>
-    <row r="276" ht="12.75" customHeight="1">
+    <row r="276" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -9538,7 +9565,7 @@
       <c r="AC276" s="3"/>
       <c r="AD276" s="3"/>
     </row>
-    <row r="277" ht="12.75" customHeight="1">
+    <row r="277" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -9570,7 +9597,7 @@
       <c r="AC277" s="3"/>
       <c r="AD277" s="3"/>
     </row>
-    <row r="278" ht="12.75" customHeight="1">
+    <row r="278" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -9602,7 +9629,7 @@
       <c r="AC278" s="3"/>
       <c r="AD278" s="3"/>
     </row>
-    <row r="279" ht="12.75" customHeight="1">
+    <row r="279" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -9634,7 +9661,7 @@
       <c r="AC279" s="3"/>
       <c r="AD279" s="3"/>
     </row>
-    <row r="280" ht="12.75" customHeight="1">
+    <row r="280" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -9666,7 +9693,7 @@
       <c r="AC280" s="3"/>
       <c r="AD280" s="3"/>
     </row>
-    <row r="281" ht="12.75" customHeight="1">
+    <row r="281" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -9698,7 +9725,7 @@
       <c r="AC281" s="3"/>
       <c r="AD281" s="3"/>
     </row>
-    <row r="282" ht="12.75" customHeight="1">
+    <row r="282" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -9730,7 +9757,7 @@
       <c r="AC282" s="3"/>
       <c r="AD282" s="3"/>
     </row>
-    <row r="283" ht="12.75" customHeight="1">
+    <row r="283" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -9762,7 +9789,7 @@
       <c r="AC283" s="3"/>
       <c r="AD283" s="3"/>
     </row>
-    <row r="284" ht="12.75" customHeight="1">
+    <row r="284" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -9794,7 +9821,7 @@
       <c r="AC284" s="3"/>
       <c r="AD284" s="3"/>
     </row>
-    <row r="285" ht="12.75" customHeight="1">
+    <row r="285" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -9826,7 +9853,7 @@
       <c r="AC285" s="3"/>
       <c r="AD285" s="3"/>
     </row>
-    <row r="286" ht="12.75" customHeight="1">
+    <row r="286" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -9858,7 +9885,7 @@
       <c r="AC286" s="3"/>
       <c r="AD286" s="3"/>
     </row>
-    <row r="287" ht="12.75" customHeight="1">
+    <row r="287" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -9890,7 +9917,7 @@
       <c r="AC287" s="3"/>
       <c r="AD287" s="3"/>
     </row>
-    <row r="288" ht="12.75" customHeight="1">
+    <row r="288" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -9922,7 +9949,7 @@
       <c r="AC288" s="3"/>
       <c r="AD288" s="3"/>
     </row>
-    <row r="289" ht="12.75" customHeight="1">
+    <row r="289" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -9954,7 +9981,7 @@
       <c r="AC289" s="3"/>
       <c r="AD289" s="3"/>
     </row>
-    <row r="290" ht="12.75" customHeight="1">
+    <row r="290" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -9986,7 +10013,7 @@
       <c r="AC290" s="3"/>
       <c r="AD290" s="3"/>
     </row>
-    <row r="291" ht="12.75" customHeight="1">
+    <row r="291" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -10018,7 +10045,7 @@
       <c r="AC291" s="3"/>
       <c r="AD291" s="3"/>
     </row>
-    <row r="292" ht="12.75" customHeight="1">
+    <row r="292" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -10050,7 +10077,7 @@
       <c r="AC292" s="3"/>
       <c r="AD292" s="3"/>
     </row>
-    <row r="293" ht="12.75" customHeight="1">
+    <row r="293" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -10082,7 +10109,7 @@
       <c r="AC293" s="3"/>
       <c r="AD293" s="3"/>
     </row>
-    <row r="294" ht="12.75" customHeight="1">
+    <row r="294" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -10114,7 +10141,7 @@
       <c r="AC294" s="3"/>
       <c r="AD294" s="3"/>
     </row>
-    <row r="295" ht="12.75" customHeight="1">
+    <row r="295" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -10146,7 +10173,7 @@
       <c r="AC295" s="3"/>
       <c r="AD295" s="3"/>
     </row>
-    <row r="296" ht="12.75" customHeight="1">
+    <row r="296" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -10178,7 +10205,7 @@
       <c r="AC296" s="3"/>
       <c r="AD296" s="3"/>
     </row>
-    <row r="297" ht="12.75" customHeight="1">
+    <row r="297" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -10210,7 +10237,7 @@
       <c r="AC297" s="3"/>
       <c r="AD297" s="3"/>
     </row>
-    <row r="298" ht="12.75" customHeight="1">
+    <row r="298" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -10242,7 +10269,7 @@
       <c r="AC298" s="3"/>
       <c r="AD298" s="3"/>
     </row>
-    <row r="299" ht="12.75" customHeight="1">
+    <row r="299" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -10274,7 +10301,7 @@
       <c r="AC299" s="3"/>
       <c r="AD299" s="3"/>
     </row>
-    <row r="300" ht="12.75" customHeight="1">
+    <row r="300" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -10306,7 +10333,7 @@
       <c r="AC300" s="3"/>
       <c r="AD300" s="3"/>
     </row>
-    <row r="301" ht="12.75" customHeight="1">
+    <row r="301" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -10338,7 +10365,7 @@
       <c r="AC301" s="3"/>
       <c r="AD301" s="3"/>
     </row>
-    <row r="302" ht="12.75" customHeight="1">
+    <row r="302" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -10370,7 +10397,7 @@
       <c r="AC302" s="3"/>
       <c r="AD302" s="3"/>
     </row>
-    <row r="303" ht="12.75" customHeight="1">
+    <row r="303" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -10402,7 +10429,7 @@
       <c r="AC303" s="3"/>
       <c r="AD303" s="3"/>
     </row>
-    <row r="304" ht="12.75" customHeight="1">
+    <row r="304" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -10434,7 +10461,7 @@
       <c r="AC304" s="3"/>
       <c r="AD304" s="3"/>
     </row>
-    <row r="305" ht="12.75" customHeight="1">
+    <row r="305" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -10466,7 +10493,7 @@
       <c r="AC305" s="3"/>
       <c r="AD305" s="3"/>
     </row>
-    <row r="306" ht="12.75" customHeight="1">
+    <row r="306" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -10498,7 +10525,7 @@
       <c r="AC306" s="3"/>
       <c r="AD306" s="3"/>
     </row>
-    <row r="307" ht="12.75" customHeight="1">
+    <row r="307" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -10530,7 +10557,7 @@
       <c r="AC307" s="3"/>
       <c r="AD307" s="3"/>
     </row>
-    <row r="308" ht="12.75" customHeight="1">
+    <row r="308" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -10562,7 +10589,7 @@
       <c r="AC308" s="3"/>
       <c r="AD308" s="3"/>
     </row>
-    <row r="309" ht="12.75" customHeight="1">
+    <row r="309" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -10594,7 +10621,7 @@
       <c r="AC309" s="3"/>
       <c r="AD309" s="3"/>
     </row>
-    <row r="310" ht="12.75" customHeight="1">
+    <row r="310" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -10626,7 +10653,7 @@
       <c r="AC310" s="3"/>
       <c r="AD310" s="3"/>
     </row>
-    <row r="311" ht="12.75" customHeight="1">
+    <row r="311" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -10658,7 +10685,7 @@
       <c r="AC311" s="3"/>
       <c r="AD311" s="3"/>
     </row>
-    <row r="312" ht="12.75" customHeight="1">
+    <row r="312" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -10690,7 +10717,7 @@
       <c r="AC312" s="3"/>
       <c r="AD312" s="3"/>
     </row>
-    <row r="313" ht="12.75" customHeight="1">
+    <row r="313" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -10722,7 +10749,7 @@
       <c r="AC313" s="3"/>
       <c r="AD313" s="3"/>
     </row>
-    <row r="314" ht="12.75" customHeight="1">
+    <row r="314" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -10754,7 +10781,7 @@
       <c r="AC314" s="3"/>
       <c r="AD314" s="3"/>
     </row>
-    <row r="315" ht="12.75" customHeight="1">
+    <row r="315" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -10786,7 +10813,7 @@
       <c r="AC315" s="3"/>
       <c r="AD315" s="3"/>
     </row>
-    <row r="316" ht="12.75" customHeight="1">
+    <row r="316" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -10818,7 +10845,7 @@
       <c r="AC316" s="3"/>
       <c r="AD316" s="3"/>
     </row>
-    <row r="317" ht="12.75" customHeight="1">
+    <row r="317" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -10850,7 +10877,7 @@
       <c r="AC317" s="3"/>
       <c r="AD317" s="3"/>
     </row>
-    <row r="318" ht="12.75" customHeight="1">
+    <row r="318" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -10882,7 +10909,7 @@
       <c r="AC318" s="3"/>
       <c r="AD318" s="3"/>
     </row>
-    <row r="319" ht="12.75" customHeight="1">
+    <row r="319" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -10914,7 +10941,7 @@
       <c r="AC319" s="3"/>
       <c r="AD319" s="3"/>
     </row>
-    <row r="320" ht="12.75" customHeight="1">
+    <row r="320" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -10946,7 +10973,7 @@
       <c r="AC320" s="3"/>
       <c r="AD320" s="3"/>
     </row>
-    <row r="321" ht="12.75" customHeight="1">
+    <row r="321" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -10978,7 +11005,7 @@
       <c r="AC321" s="3"/>
       <c r="AD321" s="3"/>
     </row>
-    <row r="322" ht="12.75" customHeight="1">
+    <row r="322" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -11010,7 +11037,7 @@
       <c r="AC322" s="3"/>
       <c r="AD322" s="3"/>
     </row>
-    <row r="323" ht="12.75" customHeight="1">
+    <row r="323" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -11042,7 +11069,7 @@
       <c r="AC323" s="3"/>
       <c r="AD323" s="3"/>
     </row>
-    <row r="324" ht="12.75" customHeight="1">
+    <row r="324" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -11074,7 +11101,7 @@
       <c r="AC324" s="3"/>
       <c r="AD324" s="3"/>
     </row>
-    <row r="325" ht="12.75" customHeight="1">
+    <row r="325" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -11106,7 +11133,7 @@
       <c r="AC325" s="3"/>
       <c r="AD325" s="3"/>
     </row>
-    <row r="326" ht="12.75" customHeight="1">
+    <row r="326" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -11138,7 +11165,7 @@
       <c r="AC326" s="3"/>
       <c r="AD326" s="3"/>
     </row>
-    <row r="327" ht="12.75" customHeight="1">
+    <row r="327" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -11170,7 +11197,7 @@
       <c r="AC327" s="3"/>
       <c r="AD327" s="3"/>
     </row>
-    <row r="328" ht="12.75" customHeight="1">
+    <row r="328" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -11202,7 +11229,7 @@
       <c r="AC328" s="3"/>
       <c r="AD328" s="3"/>
     </row>
-    <row r="329" ht="12.75" customHeight="1">
+    <row r="329" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -11234,7 +11261,7 @@
       <c r="AC329" s="3"/>
       <c r="AD329" s="3"/>
     </row>
-    <row r="330" ht="12.75" customHeight="1">
+    <row r="330" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -11266,7 +11293,7 @@
       <c r="AC330" s="3"/>
       <c r="AD330" s="3"/>
     </row>
-    <row r="331" ht="12.75" customHeight="1">
+    <row r="331" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -11298,7 +11325,7 @@
       <c r="AC331" s="3"/>
       <c r="AD331" s="3"/>
     </row>
-    <row r="332" ht="12.75" customHeight="1">
+    <row r="332" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -11330,7 +11357,7 @@
       <c r="AC332" s="3"/>
       <c r="AD332" s="3"/>
     </row>
-    <row r="333" ht="12.75" customHeight="1">
+    <row r="333" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -11362,7 +11389,7 @@
       <c r="AC333" s="3"/>
       <c r="AD333" s="3"/>
     </row>
-    <row r="334" ht="12.75" customHeight="1">
+    <row r="334" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -11394,7 +11421,7 @@
       <c r="AC334" s="3"/>
       <c r="AD334" s="3"/>
     </row>
-    <row r="335" ht="12.75" customHeight="1">
+    <row r="335" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -11426,7 +11453,7 @@
       <c r="AC335" s="3"/>
       <c r="AD335" s="3"/>
     </row>
-    <row r="336" ht="12.75" customHeight="1">
+    <row r="336" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -11458,7 +11485,7 @@
       <c r="AC336" s="3"/>
       <c r="AD336" s="3"/>
     </row>
-    <row r="337" ht="12.75" customHeight="1">
+    <row r="337" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -11490,7 +11517,7 @@
       <c r="AC337" s="3"/>
       <c r="AD337" s="3"/>
     </row>
-    <row r="338" ht="12.75" customHeight="1">
+    <row r="338" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -11522,7 +11549,7 @@
       <c r="AC338" s="3"/>
       <c r="AD338" s="3"/>
     </row>
-    <row r="339" ht="12.75" customHeight="1">
+    <row r="339" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -11554,7 +11581,7 @@
       <c r="AC339" s="3"/>
       <c r="AD339" s="3"/>
     </row>
-    <row r="340" ht="12.75" customHeight="1">
+    <row r="340" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -11586,7 +11613,7 @@
       <c r="AC340" s="3"/>
       <c r="AD340" s="3"/>
     </row>
-    <row r="341" ht="12.75" customHeight="1">
+    <row r="341" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -11618,7 +11645,7 @@
       <c r="AC341" s="3"/>
       <c r="AD341" s="3"/>
     </row>
-    <row r="342" ht="12.75" customHeight="1">
+    <row r="342" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -11650,7 +11677,7 @@
       <c r="AC342" s="3"/>
       <c r="AD342" s="3"/>
     </row>
-    <row r="343" ht="12.75" customHeight="1">
+    <row r="343" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -11682,7 +11709,7 @@
       <c r="AC343" s="3"/>
       <c r="AD343" s="3"/>
     </row>
-    <row r="344" ht="12.75" customHeight="1">
+    <row r="344" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -11714,7 +11741,7 @@
       <c r="AC344" s="3"/>
       <c r="AD344" s="3"/>
     </row>
-    <row r="345" ht="12.75" customHeight="1">
+    <row r="345" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -11746,7 +11773,7 @@
       <c r="AC345" s="3"/>
       <c r="AD345" s="3"/>
     </row>
-    <row r="346" ht="12.75" customHeight="1">
+    <row r="346" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -11778,7 +11805,7 @@
       <c r="AC346" s="3"/>
       <c r="AD346" s="3"/>
     </row>
-    <row r="347" ht="12.75" customHeight="1">
+    <row r="347" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -11810,7 +11837,7 @@
       <c r="AC347" s="3"/>
       <c r="AD347" s="3"/>
     </row>
-    <row r="348" ht="12.75" customHeight="1">
+    <row r="348" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -11842,7 +11869,7 @@
       <c r="AC348" s="3"/>
       <c r="AD348" s="3"/>
     </row>
-    <row r="349" ht="12.75" customHeight="1">
+    <row r="349" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -11874,7 +11901,7 @@
       <c r="AC349" s="3"/>
       <c r="AD349" s="3"/>
     </row>
-    <row r="350" ht="12.75" customHeight="1">
+    <row r="350" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -11906,7 +11933,7 @@
       <c r="AC350" s="3"/>
       <c r="AD350" s="3"/>
     </row>
-    <row r="351" ht="12.75" customHeight="1">
+    <row r="351" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -11938,7 +11965,7 @@
       <c r="AC351" s="3"/>
       <c r="AD351" s="3"/>
     </row>
-    <row r="352" ht="12.75" customHeight="1">
+    <row r="352" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -11970,7 +11997,7 @@
       <c r="AC352" s="3"/>
       <c r="AD352" s="3"/>
     </row>
-    <row r="353" ht="12.75" customHeight="1">
+    <row r="353" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -12002,7 +12029,7 @@
       <c r="AC353" s="3"/>
       <c r="AD353" s="3"/>
     </row>
-    <row r="354" ht="12.75" customHeight="1">
+    <row r="354" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -12034,7 +12061,7 @@
       <c r="AC354" s="3"/>
       <c r="AD354" s="3"/>
     </row>
-    <row r="355" ht="12.75" customHeight="1">
+    <row r="355" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -12066,7 +12093,7 @@
       <c r="AC355" s="3"/>
       <c r="AD355" s="3"/>
     </row>
-    <row r="356" ht="12.75" customHeight="1">
+    <row r="356" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -12098,7 +12125,7 @@
       <c r="AC356" s="3"/>
       <c r="AD356" s="3"/>
     </row>
-    <row r="357" ht="12.75" customHeight="1">
+    <row r="357" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -12130,7 +12157,7 @@
       <c r="AC357" s="3"/>
       <c r="AD357" s="3"/>
     </row>
-    <row r="358" ht="12.75" customHeight="1">
+    <row r="358" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -12162,7 +12189,7 @@
       <c r="AC358" s="3"/>
       <c r="AD358" s="3"/>
     </row>
-    <row r="359" ht="12.75" customHeight="1">
+    <row r="359" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -12194,7 +12221,7 @@
       <c r="AC359" s="3"/>
       <c r="AD359" s="3"/>
     </row>
-    <row r="360" ht="12.75" customHeight="1">
+    <row r="360" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -12226,7 +12253,7 @@
       <c r="AC360" s="3"/>
       <c r="AD360" s="3"/>
     </row>
-    <row r="361" ht="12.75" customHeight="1">
+    <row r="361" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -12258,7 +12285,7 @@
       <c r="AC361" s="3"/>
       <c r="AD361" s="3"/>
     </row>
-    <row r="362" ht="12.75" customHeight="1">
+    <row r="362" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -12290,7 +12317,7 @@
       <c r="AC362" s="3"/>
       <c r="AD362" s="3"/>
     </row>
-    <row r="363" ht="12.75" customHeight="1">
+    <row r="363" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -12322,7 +12349,7 @@
       <c r="AC363" s="3"/>
       <c r="AD363" s="3"/>
     </row>
-    <row r="364" ht="12.75" customHeight="1">
+    <row r="364" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -12354,7 +12381,7 @@
       <c r="AC364" s="3"/>
       <c r="AD364" s="3"/>
     </row>
-    <row r="365" ht="12.75" customHeight="1">
+    <row r="365" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -12386,7 +12413,7 @@
       <c r="AC365" s="3"/>
       <c r="AD365" s="3"/>
     </row>
-    <row r="366" ht="12.75" customHeight="1">
+    <row r="366" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -12418,7 +12445,7 @@
       <c r="AC366" s="3"/>
       <c r="AD366" s="3"/>
     </row>
-    <row r="367" ht="12.75" customHeight="1">
+    <row r="367" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -12450,7 +12477,7 @@
       <c r="AC367" s="3"/>
       <c r="AD367" s="3"/>
     </row>
-    <row r="368" ht="12.75" customHeight="1">
+    <row r="368" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -12482,7 +12509,7 @@
       <c r="AC368" s="3"/>
       <c r="AD368" s="3"/>
     </row>
-    <row r="369" ht="12.75" customHeight="1">
+    <row r="369" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -12514,7 +12541,7 @@
       <c r="AC369" s="3"/>
       <c r="AD369" s="3"/>
     </row>
-    <row r="370" ht="12.75" customHeight="1">
+    <row r="370" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -12546,7 +12573,7 @@
       <c r="AC370" s="3"/>
       <c r="AD370" s="3"/>
     </row>
-    <row r="371" ht="12.75" customHeight="1">
+    <row r="371" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -12578,7 +12605,7 @@
       <c r="AC371" s="3"/>
       <c r="AD371" s="3"/>
     </row>
-    <row r="372" ht="12.75" customHeight="1">
+    <row r="372" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -12610,7 +12637,7 @@
       <c r="AC372" s="3"/>
       <c r="AD372" s="3"/>
     </row>
-    <row r="373" ht="12.75" customHeight="1">
+    <row r="373" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -12642,7 +12669,7 @@
       <c r="AC373" s="3"/>
       <c r="AD373" s="3"/>
     </row>
-    <row r="374" ht="12.75" customHeight="1">
+    <row r="374" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -12674,7 +12701,7 @@
       <c r="AC374" s="3"/>
       <c r="AD374" s="3"/>
     </row>
-    <row r="375" ht="12.75" customHeight="1">
+    <row r="375" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -12706,7 +12733,7 @@
       <c r="AC375" s="3"/>
       <c r="AD375" s="3"/>
     </row>
-    <row r="376" ht="12.75" customHeight="1">
+    <row r="376" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -12738,7 +12765,7 @@
       <c r="AC376" s="3"/>
       <c r="AD376" s="3"/>
     </row>
-    <row r="377" ht="12.75" customHeight="1">
+    <row r="377" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -12770,7 +12797,7 @@
       <c r="AC377" s="3"/>
       <c r="AD377" s="3"/>
     </row>
-    <row r="378" ht="12.75" customHeight="1">
+    <row r="378" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -12802,7 +12829,7 @@
       <c r="AC378" s="3"/>
       <c r="AD378" s="3"/>
     </row>
-    <row r="379" ht="12.75" customHeight="1">
+    <row r="379" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -12834,7 +12861,7 @@
       <c r="AC379" s="3"/>
       <c r="AD379" s="3"/>
     </row>
-    <row r="380" ht="12.75" customHeight="1">
+    <row r="380" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -12866,7 +12893,7 @@
       <c r="AC380" s="3"/>
       <c r="AD380" s="3"/>
     </row>
-    <row r="381" ht="12.75" customHeight="1">
+    <row r="381" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -12898,7 +12925,7 @@
       <c r="AC381" s="3"/>
       <c r="AD381" s="3"/>
     </row>
-    <row r="382" ht="12.75" customHeight="1">
+    <row r="382" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -12930,7 +12957,7 @@
       <c r="AC382" s="3"/>
       <c r="AD382" s="3"/>
     </row>
-    <row r="383" ht="12.75" customHeight="1">
+    <row r="383" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -12962,7 +12989,7 @@
       <c r="AC383" s="3"/>
       <c r="AD383" s="3"/>
     </row>
-    <row r="384" ht="12.75" customHeight="1">
+    <row r="384" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -12994,7 +13021,7 @@
       <c r="AC384" s="3"/>
       <c r="AD384" s="3"/>
     </row>
-    <row r="385" ht="12.75" customHeight="1">
+    <row r="385" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -13026,7 +13053,7 @@
       <c r="AC385" s="3"/>
       <c r="AD385" s="3"/>
     </row>
-    <row r="386" ht="12.75" customHeight="1">
+    <row r="386" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -13058,7 +13085,7 @@
       <c r="AC386" s="3"/>
       <c r="AD386" s="3"/>
     </row>
-    <row r="387" ht="12.75" customHeight="1">
+    <row r="387" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -13090,7 +13117,7 @@
       <c r="AC387" s="3"/>
       <c r="AD387" s="3"/>
     </row>
-    <row r="388" ht="12.75" customHeight="1">
+    <row r="388" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -13122,7 +13149,7 @@
       <c r="AC388" s="3"/>
       <c r="AD388" s="3"/>
     </row>
-    <row r="389" ht="12.75" customHeight="1">
+    <row r="389" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -13154,7 +13181,7 @@
       <c r="AC389" s="3"/>
       <c r="AD389" s="3"/>
     </row>
-    <row r="390" ht="12.75" customHeight="1">
+    <row r="390" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -13186,7 +13213,7 @@
       <c r="AC390" s="3"/>
       <c r="AD390" s="3"/>
     </row>
-    <row r="391" ht="12.75" customHeight="1">
+    <row r="391" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -13218,7 +13245,7 @@
       <c r="AC391" s="3"/>
       <c r="AD391" s="3"/>
     </row>
-    <row r="392" ht="12.75" customHeight="1">
+    <row r="392" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -13250,7 +13277,7 @@
       <c r="AC392" s="3"/>
       <c r="AD392" s="3"/>
     </row>
-    <row r="393" ht="12.75" customHeight="1">
+    <row r="393" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -13282,7 +13309,7 @@
       <c r="AC393" s="3"/>
       <c r="AD393" s="3"/>
     </row>
-    <row r="394" ht="12.75" customHeight="1">
+    <row r="394" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -13314,7 +13341,7 @@
       <c r="AC394" s="3"/>
       <c r="AD394" s="3"/>
     </row>
-    <row r="395" ht="12.75" customHeight="1">
+    <row r="395" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -13346,7 +13373,7 @@
       <c r="AC395" s="3"/>
       <c r="AD395" s="3"/>
     </row>
-    <row r="396" ht="12.75" customHeight="1">
+    <row r="396" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -13378,7 +13405,7 @@
       <c r="AC396" s="3"/>
       <c r="AD396" s="3"/>
     </row>
-    <row r="397" ht="12.75" customHeight="1">
+    <row r="397" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -13410,7 +13437,7 @@
       <c r="AC397" s="3"/>
       <c r="AD397" s="3"/>
     </row>
-    <row r="398" ht="12.75" customHeight="1">
+    <row r="398" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -13442,7 +13469,7 @@
       <c r="AC398" s="3"/>
       <c r="AD398" s="3"/>
     </row>
-    <row r="399" ht="12.75" customHeight="1">
+    <row r="399" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -13474,7 +13501,7 @@
       <c r="AC399" s="3"/>
       <c r="AD399" s="3"/>
     </row>
-    <row r="400" ht="12.75" customHeight="1">
+    <row r="400" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -13506,7 +13533,7 @@
       <c r="AC400" s="3"/>
       <c r="AD400" s="3"/>
     </row>
-    <row r="401" ht="12.75" customHeight="1">
+    <row r="401" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -13538,7 +13565,7 @@
       <c r="AC401" s="3"/>
       <c r="AD401" s="3"/>
     </row>
-    <row r="402" ht="12.75" customHeight="1">
+    <row r="402" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -13570,7 +13597,7 @@
       <c r="AC402" s="3"/>
       <c r="AD402" s="3"/>
     </row>
-    <row r="403" ht="12.75" customHeight="1">
+    <row r="403" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -13602,7 +13629,7 @@
       <c r="AC403" s="3"/>
       <c r="AD403" s="3"/>
     </row>
-    <row r="404" ht="12.75" customHeight="1">
+    <row r="404" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -13634,7 +13661,7 @@
       <c r="AC404" s="3"/>
       <c r="AD404" s="3"/>
     </row>
-    <row r="405" ht="12.75" customHeight="1">
+    <row r="405" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -13666,7 +13693,7 @@
       <c r="AC405" s="3"/>
       <c r="AD405" s="3"/>
     </row>
-    <row r="406" ht="12.75" customHeight="1">
+    <row r="406" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -13698,7 +13725,7 @@
       <c r="AC406" s="3"/>
       <c r="AD406" s="3"/>
     </row>
-    <row r="407" ht="12.75" customHeight="1">
+    <row r="407" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -13730,7 +13757,7 @@
       <c r="AC407" s="3"/>
       <c r="AD407" s="3"/>
     </row>
-    <row r="408" ht="12.75" customHeight="1">
+    <row r="408" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -13762,7 +13789,7 @@
       <c r="AC408" s="3"/>
       <c r="AD408" s="3"/>
     </row>
-    <row r="409" ht="12.75" customHeight="1">
+    <row r="409" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -13794,7 +13821,7 @@
       <c r="AC409" s="3"/>
       <c r="AD409" s="3"/>
     </row>
-    <row r="410" ht="12.75" customHeight="1">
+    <row r="410" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -13826,7 +13853,7 @@
       <c r="AC410" s="3"/>
       <c r="AD410" s="3"/>
     </row>
-    <row r="411" ht="12.75" customHeight="1">
+    <row r="411" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -13858,7 +13885,7 @@
       <c r="AC411" s="3"/>
       <c r="AD411" s="3"/>
     </row>
-    <row r="412" ht="12.75" customHeight="1">
+    <row r="412" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -13890,7 +13917,7 @@
       <c r="AC412" s="3"/>
       <c r="AD412" s="3"/>
     </row>
-    <row r="413" ht="12.75" customHeight="1">
+    <row r="413" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -13922,7 +13949,7 @@
       <c r="AC413" s="3"/>
       <c r="AD413" s="3"/>
     </row>
-    <row r="414" ht="12.75" customHeight="1">
+    <row r="414" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -13954,7 +13981,7 @@
       <c r="AC414" s="3"/>
       <c r="AD414" s="3"/>
     </row>
-    <row r="415" ht="12.75" customHeight="1">
+    <row r="415" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -13986,7 +14013,7 @@
       <c r="AC415" s="3"/>
       <c r="AD415" s="3"/>
     </row>
-    <row r="416" ht="12.75" customHeight="1">
+    <row r="416" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -14018,7 +14045,7 @@
       <c r="AC416" s="3"/>
       <c r="AD416" s="3"/>
     </row>
-    <row r="417" ht="12.75" customHeight="1">
+    <row r="417" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -14050,7 +14077,7 @@
       <c r="AC417" s="3"/>
       <c r="AD417" s="3"/>
     </row>
-    <row r="418" ht="12.75" customHeight="1">
+    <row r="418" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -14082,7 +14109,7 @@
       <c r="AC418" s="3"/>
       <c r="AD418" s="3"/>
     </row>
-    <row r="419" ht="12.75" customHeight="1">
+    <row r="419" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -14114,7 +14141,7 @@
       <c r="AC419" s="3"/>
       <c r="AD419" s="3"/>
     </row>
-    <row r="420" ht="12.75" customHeight="1">
+    <row r="420" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -14146,7 +14173,7 @@
       <c r="AC420" s="3"/>
       <c r="AD420" s="3"/>
     </row>
-    <row r="421" ht="12.75" customHeight="1">
+    <row r="421" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -14178,7 +14205,7 @@
       <c r="AC421" s="3"/>
       <c r="AD421" s="3"/>
     </row>
-    <row r="422" ht="12.75" customHeight="1">
+    <row r="422" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -14210,7 +14237,7 @@
       <c r="AC422" s="3"/>
       <c r="AD422" s="3"/>
     </row>
-    <row r="423" ht="12.75" customHeight="1">
+    <row r="423" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -14242,7 +14269,7 @@
       <c r="AC423" s="3"/>
       <c r="AD423" s="3"/>
     </row>
-    <row r="424" ht="12.75" customHeight="1">
+    <row r="424" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -14274,7 +14301,7 @@
       <c r="AC424" s="3"/>
       <c r="AD424" s="3"/>
     </row>
-    <row r="425" ht="12.75" customHeight="1">
+    <row r="425" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -14306,7 +14333,7 @@
       <c r="AC425" s="3"/>
       <c r="AD425" s="3"/>
     </row>
-    <row r="426" ht="12.75" customHeight="1">
+    <row r="426" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -14338,7 +14365,7 @@
       <c r="AC426" s="3"/>
       <c r="AD426" s="3"/>
     </row>
-    <row r="427" ht="12.75" customHeight="1">
+    <row r="427" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -14370,7 +14397,7 @@
       <c r="AC427" s="3"/>
       <c r="AD427" s="3"/>
     </row>
-    <row r="428" ht="12.75" customHeight="1">
+    <row r="428" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -14402,7 +14429,7 @@
       <c r="AC428" s="3"/>
       <c r="AD428" s="3"/>
     </row>
-    <row r="429" ht="12.75" customHeight="1">
+    <row r="429" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -14434,7 +14461,7 @@
       <c r="AC429" s="3"/>
       <c r="AD429" s="3"/>
     </row>
-    <row r="430" ht="12.75" customHeight="1">
+    <row r="430" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -14466,7 +14493,7 @@
       <c r="AC430" s="3"/>
       <c r="AD430" s="3"/>
     </row>
-    <row r="431" ht="12.75" customHeight="1">
+    <row r="431" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -14498,7 +14525,7 @@
       <c r="AC431" s="3"/>
       <c r="AD431" s="3"/>
     </row>
-    <row r="432" ht="12.75" customHeight="1">
+    <row r="432" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -14530,7 +14557,7 @@
       <c r="AC432" s="3"/>
       <c r="AD432" s="3"/>
     </row>
-    <row r="433" ht="12.75" customHeight="1">
+    <row r="433" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -14562,7 +14589,7 @@
       <c r="AC433" s="3"/>
       <c r="AD433" s="3"/>
     </row>
-    <row r="434" ht="12.75" customHeight="1">
+    <row r="434" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -14594,7 +14621,7 @@
       <c r="AC434" s="3"/>
       <c r="AD434" s="3"/>
     </row>
-    <row r="435" ht="12.75" customHeight="1">
+    <row r="435" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -14626,7 +14653,7 @@
       <c r="AC435" s="3"/>
       <c r="AD435" s="3"/>
     </row>
-    <row r="436" ht="12.75" customHeight="1">
+    <row r="436" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -14658,7 +14685,7 @@
       <c r="AC436" s="3"/>
       <c r="AD436" s="3"/>
     </row>
-    <row r="437" ht="12.75" customHeight="1">
+    <row r="437" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -14690,7 +14717,7 @@
       <c r="AC437" s="3"/>
       <c r="AD437" s="3"/>
     </row>
-    <row r="438" ht="12.75" customHeight="1">
+    <row r="438" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -14722,7 +14749,7 @@
       <c r="AC438" s="3"/>
       <c r="AD438" s="3"/>
     </row>
-    <row r="439" ht="12.75" customHeight="1">
+    <row r="439" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -14754,7 +14781,7 @@
       <c r="AC439" s="3"/>
       <c r="AD439" s="3"/>
     </row>
-    <row r="440" ht="12.75" customHeight="1">
+    <row r="440" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -14786,7 +14813,7 @@
       <c r="AC440" s="3"/>
       <c r="AD440" s="3"/>
     </row>
-    <row r="441" ht="12.75" customHeight="1">
+    <row r="441" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -14818,7 +14845,7 @@
       <c r="AC441" s="3"/>
       <c r="AD441" s="3"/>
     </row>
-    <row r="442" ht="12.75" customHeight="1">
+    <row r="442" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -14850,7 +14877,7 @@
       <c r="AC442" s="3"/>
       <c r="AD442" s="3"/>
     </row>
-    <row r="443" ht="12.75" customHeight="1">
+    <row r="443" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -14882,7 +14909,7 @@
       <c r="AC443" s="3"/>
       <c r="AD443" s="3"/>
     </row>
-    <row r="444" ht="12.75" customHeight="1">
+    <row r="444" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -14914,7 +14941,7 @@
       <c r="AC444" s="3"/>
       <c r="AD444" s="3"/>
     </row>
-    <row r="445" ht="12.75" customHeight="1">
+    <row r="445" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -14946,7 +14973,7 @@
       <c r="AC445" s="3"/>
       <c r="AD445" s="3"/>
     </row>
-    <row r="446" ht="12.75" customHeight="1">
+    <row r="446" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -14978,7 +15005,7 @@
       <c r="AC446" s="3"/>
       <c r="AD446" s="3"/>
     </row>
-    <row r="447" ht="12.75" customHeight="1">
+    <row r="447" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -15010,7 +15037,7 @@
       <c r="AC447" s="3"/>
       <c r="AD447" s="3"/>
     </row>
-    <row r="448" ht="12.75" customHeight="1">
+    <row r="448" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -15042,7 +15069,7 @@
       <c r="AC448" s="3"/>
       <c r="AD448" s="3"/>
     </row>
-    <row r="449" ht="12.75" customHeight="1">
+    <row r="449" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -15074,7 +15101,7 @@
       <c r="AC449" s="3"/>
       <c r="AD449" s="3"/>
     </row>
-    <row r="450" ht="12.75" customHeight="1">
+    <row r="450" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -15106,7 +15133,7 @@
       <c r="AC450" s="3"/>
       <c r="AD450" s="3"/>
     </row>
-    <row r="451" ht="12.75" customHeight="1">
+    <row r="451" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -15138,7 +15165,7 @@
       <c r="AC451" s="3"/>
       <c r="AD451" s="3"/>
     </row>
-    <row r="452" ht="12.75" customHeight="1">
+    <row r="452" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -15170,7 +15197,7 @@
       <c r="AC452" s="3"/>
       <c r="AD452" s="3"/>
     </row>
-    <row r="453" ht="12.75" customHeight="1">
+    <row r="453" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -15202,7 +15229,7 @@
       <c r="AC453" s="3"/>
       <c r="AD453" s="3"/>
     </row>
-    <row r="454" ht="12.75" customHeight="1">
+    <row r="454" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -15234,7 +15261,7 @@
       <c r="AC454" s="3"/>
       <c r="AD454" s="3"/>
     </row>
-    <row r="455" ht="12.75" customHeight="1">
+    <row r="455" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -15266,7 +15293,7 @@
       <c r="AC455" s="3"/>
       <c r="AD455" s="3"/>
     </row>
-    <row r="456" ht="12.75" customHeight="1">
+    <row r="456" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -15298,7 +15325,7 @@
       <c r="AC456" s="3"/>
       <c r="AD456" s="3"/>
     </row>
-    <row r="457" ht="12.75" customHeight="1">
+    <row r="457" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -15330,7 +15357,7 @@
       <c r="AC457" s="3"/>
       <c r="AD457" s="3"/>
     </row>
-    <row r="458" ht="12.75" customHeight="1">
+    <row r="458" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -15362,7 +15389,7 @@
       <c r="AC458" s="3"/>
       <c r="AD458" s="3"/>
     </row>
-    <row r="459" ht="12.75" customHeight="1">
+    <row r="459" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -15394,7 +15421,7 @@
       <c r="AC459" s="3"/>
       <c r="AD459" s="3"/>
     </row>
-    <row r="460" ht="12.75" customHeight="1">
+    <row r="460" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -15426,7 +15453,7 @@
       <c r="AC460" s="3"/>
       <c r="AD460" s="3"/>
     </row>
-    <row r="461" ht="12.75" customHeight="1">
+    <row r="461" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -15458,7 +15485,7 @@
       <c r="AC461" s="3"/>
       <c r="AD461" s="3"/>
     </row>
-    <row r="462" ht="12.75" customHeight="1">
+    <row r="462" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -15490,7 +15517,7 @@
       <c r="AC462" s="3"/>
       <c r="AD462" s="3"/>
     </row>
-    <row r="463" ht="12.75" customHeight="1">
+    <row r="463" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -15522,7 +15549,7 @@
       <c r="AC463" s="3"/>
       <c r="AD463" s="3"/>
     </row>
-    <row r="464" ht="12.75" customHeight="1">
+    <row r="464" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -15554,7 +15581,7 @@
       <c r="AC464" s="3"/>
       <c r="AD464" s="3"/>
     </row>
-    <row r="465" ht="12.75" customHeight="1">
+    <row r="465" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -15586,7 +15613,7 @@
       <c r="AC465" s="3"/>
       <c r="AD465" s="3"/>
     </row>
-    <row r="466" ht="12.75" customHeight="1">
+    <row r="466" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -15618,7 +15645,7 @@
       <c r="AC466" s="3"/>
       <c r="AD466" s="3"/>
     </row>
-    <row r="467" ht="12.75" customHeight="1">
+    <row r="467" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -15650,7 +15677,7 @@
       <c r="AC467" s="3"/>
       <c r="AD467" s="3"/>
     </row>
-    <row r="468" ht="12.75" customHeight="1">
+    <row r="468" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -15682,7 +15709,7 @@
       <c r="AC468" s="3"/>
       <c r="AD468" s="3"/>
     </row>
-    <row r="469" ht="12.75" customHeight="1">
+    <row r="469" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -15714,7 +15741,7 @@
       <c r="AC469" s="3"/>
       <c r="AD469" s="3"/>
     </row>
-    <row r="470" ht="12.75" customHeight="1">
+    <row r="470" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -15746,7 +15773,7 @@
       <c r="AC470" s="3"/>
       <c r="AD470" s="3"/>
     </row>
-    <row r="471" ht="12.75" customHeight="1">
+    <row r="471" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -15778,7 +15805,7 @@
       <c r="AC471" s="3"/>
       <c r="AD471" s="3"/>
     </row>
-    <row r="472" ht="12.75" customHeight="1">
+    <row r="472" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -15810,7 +15837,7 @@
       <c r="AC472" s="3"/>
       <c r="AD472" s="3"/>
     </row>
-    <row r="473" ht="12.75" customHeight="1">
+    <row r="473" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -15842,7 +15869,7 @@
       <c r="AC473" s="3"/>
       <c r="AD473" s="3"/>
     </row>
-    <row r="474" ht="12.75" customHeight="1">
+    <row r="474" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -15874,7 +15901,7 @@
       <c r="AC474" s="3"/>
       <c r="AD474" s="3"/>
     </row>
-    <row r="475" ht="12.75" customHeight="1">
+    <row r="475" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -15906,7 +15933,7 @@
       <c r="AC475" s="3"/>
       <c r="AD475" s="3"/>
     </row>
-    <row r="476" ht="12.75" customHeight="1">
+    <row r="476" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -15938,7 +15965,7 @@
       <c r="AC476" s="3"/>
       <c r="AD476" s="3"/>
     </row>
-    <row r="477" ht="12.75" customHeight="1">
+    <row r="477" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -15970,7 +15997,7 @@
       <c r="AC477" s="3"/>
       <c r="AD477" s="3"/>
     </row>
-    <row r="478" ht="12.75" customHeight="1">
+    <row r="478" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -16002,7 +16029,7 @@
       <c r="AC478" s="3"/>
       <c r="AD478" s="3"/>
     </row>
-    <row r="479" ht="12.75" customHeight="1">
+    <row r="479" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -16034,7 +16061,7 @@
       <c r="AC479" s="3"/>
       <c r="AD479" s="3"/>
     </row>
-    <row r="480" ht="12.75" customHeight="1">
+    <row r="480" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -16066,7 +16093,7 @@
       <c r="AC480" s="3"/>
       <c r="AD480" s="3"/>
     </row>
-    <row r="481" ht="12.75" customHeight="1">
+    <row r="481" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -16098,7 +16125,7 @@
       <c r="AC481" s="3"/>
       <c r="AD481" s="3"/>
     </row>
-    <row r="482" ht="12.75" customHeight="1">
+    <row r="482" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -16130,7 +16157,7 @@
       <c r="AC482" s="3"/>
       <c r="AD482" s="3"/>
     </row>
-    <row r="483" ht="12.75" customHeight="1">
+    <row r="483" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -16162,7 +16189,7 @@
       <c r="AC483" s="3"/>
       <c r="AD483" s="3"/>
     </row>
-    <row r="484" ht="12.75" customHeight="1">
+    <row r="484" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -16194,7 +16221,7 @@
       <c r="AC484" s="3"/>
       <c r="AD484" s="3"/>
     </row>
-    <row r="485" ht="12.75" customHeight="1">
+    <row r="485" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -16226,7 +16253,7 @@
       <c r="AC485" s="3"/>
       <c r="AD485" s="3"/>
     </row>
-    <row r="486" ht="12.75" customHeight="1">
+    <row r="486" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -16258,7 +16285,7 @@
       <c r="AC486" s="3"/>
       <c r="AD486" s="3"/>
     </row>
-    <row r="487" ht="12.75" customHeight="1">
+    <row r="487" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -16290,7 +16317,7 @@
       <c r="AC487" s="3"/>
       <c r="AD487" s="3"/>
     </row>
-    <row r="488" ht="12.75" customHeight="1">
+    <row r="488" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -16322,7 +16349,7 @@
       <c r="AC488" s="3"/>
       <c r="AD488" s="3"/>
     </row>
-    <row r="489" ht="12.75" customHeight="1">
+    <row r="489" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -16354,7 +16381,7 @@
       <c r="AC489" s="3"/>
       <c r="AD489" s="3"/>
     </row>
-    <row r="490" ht="12.75" customHeight="1">
+    <row r="490" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -16386,7 +16413,7 @@
       <c r="AC490" s="3"/>
       <c r="AD490" s="3"/>
     </row>
-    <row r="491" ht="12.75" customHeight="1">
+    <row r="491" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -16418,7 +16445,7 @@
       <c r="AC491" s="3"/>
       <c r="AD491" s="3"/>
     </row>
-    <row r="492" ht="12.75" customHeight="1">
+    <row r="492" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -16450,7 +16477,7 @@
       <c r="AC492" s="3"/>
       <c r="AD492" s="3"/>
     </row>
-    <row r="493" ht="12.75" customHeight="1">
+    <row r="493" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -16482,7 +16509,7 @@
       <c r="AC493" s="3"/>
       <c r="AD493" s="3"/>
     </row>
-    <row r="494" ht="12.75" customHeight="1">
+    <row r="494" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -16514,7 +16541,7 @@
       <c r="AC494" s="3"/>
       <c r="AD494" s="3"/>
     </row>
-    <row r="495" ht="12.75" customHeight="1">
+    <row r="495" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -16546,7 +16573,7 @@
       <c r="AC495" s="3"/>
       <c r="AD495" s="3"/>
     </row>
-    <row r="496" ht="12.75" customHeight="1">
+    <row r="496" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -16578,7 +16605,7 @@
       <c r="AC496" s="3"/>
       <c r="AD496" s="3"/>
     </row>
-    <row r="497" ht="12.75" customHeight="1">
+    <row r="497" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -16610,7 +16637,7 @@
       <c r="AC497" s="3"/>
       <c r="AD497" s="3"/>
     </row>
-    <row r="498" ht="12.75" customHeight="1">
+    <row r="498" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -16642,7 +16669,7 @@
       <c r="AC498" s="3"/>
       <c r="AD498" s="3"/>
     </row>
-    <row r="499" ht="12.75" customHeight="1">
+    <row r="499" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -16674,7 +16701,7 @@
       <c r="AC499" s="3"/>
       <c r="AD499" s="3"/>
     </row>
-    <row r="500" ht="12.75" customHeight="1">
+    <row r="500" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -16706,7 +16733,7 @@
       <c r="AC500" s="3"/>
       <c r="AD500" s="3"/>
     </row>
-    <row r="501" ht="12.75" customHeight="1">
+    <row r="501" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -16738,7 +16765,7 @@
       <c r="AC501" s="3"/>
       <c r="AD501" s="3"/>
     </row>
-    <row r="502" ht="12.75" customHeight="1">
+    <row r="502" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -16770,7 +16797,7 @@
       <c r="AC502" s="3"/>
       <c r="AD502" s="3"/>
     </row>
-    <row r="503" ht="12.75" customHeight="1">
+    <row r="503" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -16802,7 +16829,7 @@
       <c r="AC503" s="3"/>
       <c r="AD503" s="3"/>
     </row>
-    <row r="504" ht="12.75" customHeight="1">
+    <row r="504" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -16834,7 +16861,7 @@
       <c r="AC504" s="3"/>
       <c r="AD504" s="3"/>
     </row>
-    <row r="505" ht="12.75" customHeight="1">
+    <row r="505" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -16866,7 +16893,7 @@
       <c r="AC505" s="3"/>
       <c r="AD505" s="3"/>
     </row>
-    <row r="506" ht="12.75" customHeight="1">
+    <row r="506" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -16898,7 +16925,7 @@
       <c r="AC506" s="3"/>
       <c r="AD506" s="3"/>
     </row>
-    <row r="507" ht="12.75" customHeight="1">
+    <row r="507" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -16930,7 +16957,7 @@
       <c r="AC507" s="3"/>
       <c r="AD507" s="3"/>
     </row>
-    <row r="508" ht="12.75" customHeight="1">
+    <row r="508" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -16962,7 +16989,7 @@
       <c r="AC508" s="3"/>
       <c r="AD508" s="3"/>
     </row>
-    <row r="509" ht="12.75" customHeight="1">
+    <row r="509" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -16994,7 +17021,7 @@
       <c r="AC509" s="3"/>
       <c r="AD509" s="3"/>
     </row>
-    <row r="510" ht="12.75" customHeight="1">
+    <row r="510" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -17026,7 +17053,7 @@
       <c r="AC510" s="3"/>
       <c r="AD510" s="3"/>
     </row>
-    <row r="511" ht="12.75" customHeight="1">
+    <row r="511" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -17058,7 +17085,7 @@
       <c r="AC511" s="3"/>
       <c r="AD511" s="3"/>
     </row>
-    <row r="512" ht="12.75" customHeight="1">
+    <row r="512" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -17090,7 +17117,7 @@
       <c r="AC512" s="3"/>
       <c r="AD512" s="3"/>
     </row>
-    <row r="513" ht="12.75" customHeight="1">
+    <row r="513" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -17122,7 +17149,7 @@
       <c r="AC513" s="3"/>
       <c r="AD513" s="3"/>
     </row>
-    <row r="514" ht="12.75" customHeight="1">
+    <row r="514" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -17154,7 +17181,7 @@
       <c r="AC514" s="3"/>
       <c r="AD514" s="3"/>
     </row>
-    <row r="515" ht="12.75" customHeight="1">
+    <row r="515" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -17186,7 +17213,7 @@
       <c r="AC515" s="3"/>
       <c r="AD515" s="3"/>
     </row>
-    <row r="516" ht="12.75" customHeight="1">
+    <row r="516" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -17218,7 +17245,7 @@
       <c r="AC516" s="3"/>
       <c r="AD516" s="3"/>
     </row>
-    <row r="517" ht="12.75" customHeight="1">
+    <row r="517" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -17250,7 +17277,7 @@
       <c r="AC517" s="3"/>
       <c r="AD517" s="3"/>
     </row>
-    <row r="518" ht="12.75" customHeight="1">
+    <row r="518" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -17282,7 +17309,7 @@
       <c r="AC518" s="3"/>
       <c r="AD518" s="3"/>
     </row>
-    <row r="519" ht="12.75" customHeight="1">
+    <row r="519" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -17314,7 +17341,7 @@
       <c r="AC519" s="3"/>
       <c r="AD519" s="3"/>
     </row>
-    <row r="520" ht="12.75" customHeight="1">
+    <row r="520" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -17346,7 +17373,7 @@
       <c r="AC520" s="3"/>
       <c r="AD520" s="3"/>
     </row>
-    <row r="521" ht="12.75" customHeight="1">
+    <row r="521" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -17378,7 +17405,7 @@
       <c r="AC521" s="3"/>
       <c r="AD521" s="3"/>
     </row>
-    <row r="522" ht="12.75" customHeight="1">
+    <row r="522" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -17410,7 +17437,7 @@
       <c r="AC522" s="3"/>
       <c r="AD522" s="3"/>
     </row>
-    <row r="523" ht="12.75" customHeight="1">
+    <row r="523" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -17442,7 +17469,7 @@
       <c r="AC523" s="3"/>
       <c r="AD523" s="3"/>
     </row>
-    <row r="524" ht="12.75" customHeight="1">
+    <row r="524" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -17474,7 +17501,7 @@
       <c r="AC524" s="3"/>
       <c r="AD524" s="3"/>
     </row>
-    <row r="525" ht="12.75" customHeight="1">
+    <row r="525" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -17506,7 +17533,7 @@
       <c r="AC525" s="3"/>
       <c r="AD525" s="3"/>
     </row>
-    <row r="526" ht="12.75" customHeight="1">
+    <row r="526" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -17538,7 +17565,7 @@
       <c r="AC526" s="3"/>
       <c r="AD526" s="3"/>
     </row>
-    <row r="527" ht="12.75" customHeight="1">
+    <row r="527" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -17570,7 +17597,7 @@
       <c r="AC527" s="3"/>
       <c r="AD527" s="3"/>
     </row>
-    <row r="528" ht="12.75" customHeight="1">
+    <row r="528" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -17602,7 +17629,7 @@
       <c r="AC528" s="3"/>
       <c r="AD528" s="3"/>
     </row>
-    <row r="529" ht="12.75" customHeight="1">
+    <row r="529" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -17634,7 +17661,7 @@
       <c r="AC529" s="3"/>
       <c r="AD529" s="3"/>
     </row>
-    <row r="530" ht="12.75" customHeight="1">
+    <row r="530" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -17666,7 +17693,7 @@
       <c r="AC530" s="3"/>
       <c r="AD530" s="3"/>
     </row>
-    <row r="531" ht="12.75" customHeight="1">
+    <row r="531" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -17698,7 +17725,7 @@
       <c r="AC531" s="3"/>
       <c r="AD531" s="3"/>
     </row>
-    <row r="532" ht="12.75" customHeight="1">
+    <row r="532" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -17730,7 +17757,7 @@
       <c r="AC532" s="3"/>
       <c r="AD532" s="3"/>
     </row>
-    <row r="533" ht="12.75" customHeight="1">
+    <row r="533" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -17762,7 +17789,7 @@
       <c r="AC533" s="3"/>
       <c r="AD533" s="3"/>
     </row>
-    <row r="534" ht="12.75" customHeight="1">
+    <row r="534" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -17794,7 +17821,7 @@
       <c r="AC534" s="3"/>
       <c r="AD534" s="3"/>
     </row>
-    <row r="535" ht="12.75" customHeight="1">
+    <row r="535" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -17826,7 +17853,7 @@
       <c r="AC535" s="3"/>
       <c r="AD535" s="3"/>
     </row>
-    <row r="536" ht="12.75" customHeight="1">
+    <row r="536" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -17858,7 +17885,7 @@
       <c r="AC536" s="3"/>
       <c r="AD536" s="3"/>
     </row>
-    <row r="537" ht="12.75" customHeight="1">
+    <row r="537" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -17890,7 +17917,7 @@
       <c r="AC537" s="3"/>
       <c r="AD537" s="3"/>
     </row>
-    <row r="538" ht="12.75" customHeight="1">
+    <row r="538" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -17922,7 +17949,7 @@
       <c r="AC538" s="3"/>
       <c r="AD538" s="3"/>
     </row>
-    <row r="539" ht="12.75" customHeight="1">
+    <row r="539" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -17954,7 +17981,7 @@
       <c r="AC539" s="3"/>
       <c r="AD539" s="3"/>
     </row>
-    <row r="540" ht="12.75" customHeight="1">
+    <row r="540" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -17986,7 +18013,7 @@
       <c r="AC540" s="3"/>
       <c r="AD540" s="3"/>
     </row>
-    <row r="541" ht="12.75" customHeight="1">
+    <row r="541" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -18018,7 +18045,7 @@
       <c r="AC541" s="3"/>
       <c r="AD541" s="3"/>
     </row>
-    <row r="542" ht="12.75" customHeight="1">
+    <row r="542" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -18050,7 +18077,7 @@
       <c r="AC542" s="3"/>
       <c r="AD542" s="3"/>
     </row>
-    <row r="543" ht="12.75" customHeight="1">
+    <row r="543" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -18082,7 +18109,7 @@
       <c r="AC543" s="3"/>
       <c r="AD543" s="3"/>
     </row>
-    <row r="544" ht="12.75" customHeight="1">
+    <row r="544" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -18114,7 +18141,7 @@
       <c r="AC544" s="3"/>
       <c r="AD544" s="3"/>
     </row>
-    <row r="545" ht="12.75" customHeight="1">
+    <row r="545" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -18146,7 +18173,7 @@
       <c r="AC545" s="3"/>
       <c r="AD545" s="3"/>
     </row>
-    <row r="546" ht="12.75" customHeight="1">
+    <row r="546" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -18178,7 +18205,7 @@
       <c r="AC546" s="3"/>
       <c r="AD546" s="3"/>
     </row>
-    <row r="547" ht="12.75" customHeight="1">
+    <row r="547" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -18210,7 +18237,7 @@
       <c r="AC547" s="3"/>
       <c r="AD547" s="3"/>
     </row>
-    <row r="548" ht="12.75" customHeight="1">
+    <row r="548" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -18242,7 +18269,7 @@
       <c r="AC548" s="3"/>
       <c r="AD548" s="3"/>
     </row>
-    <row r="549" ht="12.75" customHeight="1">
+    <row r="549" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -18274,7 +18301,7 @@
       <c r="AC549" s="3"/>
       <c r="AD549" s="3"/>
     </row>
-    <row r="550" ht="12.75" customHeight="1">
+    <row r="550" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -18306,7 +18333,7 @@
       <c r="AC550" s="3"/>
       <c r="AD550" s="3"/>
     </row>
-    <row r="551" ht="12.75" customHeight="1">
+    <row r="551" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -18338,7 +18365,7 @@
       <c r="AC551" s="3"/>
       <c r="AD551" s="3"/>
     </row>
-    <row r="552" ht="12.75" customHeight="1">
+    <row r="552" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -18370,7 +18397,7 @@
       <c r="AC552" s="3"/>
       <c r="AD552" s="3"/>
     </row>
-    <row r="553" ht="12.75" customHeight="1">
+    <row r="553" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -18402,7 +18429,7 @@
       <c r="AC553" s="3"/>
       <c r="AD553" s="3"/>
     </row>
-    <row r="554" ht="12.75" customHeight="1">
+    <row r="554" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -18434,7 +18461,7 @@
       <c r="AC554" s="3"/>
       <c r="AD554" s="3"/>
     </row>
-    <row r="555" ht="12.75" customHeight="1">
+    <row r="555" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -18466,7 +18493,7 @@
       <c r="AC555" s="3"/>
       <c r="AD555" s="3"/>
     </row>
-    <row r="556" ht="12.75" customHeight="1">
+    <row r="556" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -18498,7 +18525,7 @@
       <c r="AC556" s="3"/>
       <c r="AD556" s="3"/>
     </row>
-    <row r="557" ht="12.75" customHeight="1">
+    <row r="557" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -18530,7 +18557,7 @@
       <c r="AC557" s="3"/>
       <c r="AD557" s="3"/>
     </row>
-    <row r="558" ht="12.75" customHeight="1">
+    <row r="558" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -18562,7 +18589,7 @@
       <c r="AC558" s="3"/>
       <c r="AD558" s="3"/>
     </row>
-    <row r="559" ht="12.75" customHeight="1">
+    <row r="559" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -18594,7 +18621,7 @@
       <c r="AC559" s="3"/>
       <c r="AD559" s="3"/>
     </row>
-    <row r="560" ht="12.75" customHeight="1">
+    <row r="560" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -18626,7 +18653,7 @@
       <c r="AC560" s="3"/>
       <c r="AD560" s="3"/>
     </row>
-    <row r="561" ht="12.75" customHeight="1">
+    <row r="561" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -18658,7 +18685,7 @@
       <c r="AC561" s="3"/>
       <c r="AD561" s="3"/>
     </row>
-    <row r="562" ht="12.75" customHeight="1">
+    <row r="562" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -18690,7 +18717,7 @@
       <c r="AC562" s="3"/>
       <c r="AD562" s="3"/>
     </row>
-    <row r="563" ht="12.75" customHeight="1">
+    <row r="563" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -18722,7 +18749,7 @@
       <c r="AC563" s="3"/>
       <c r="AD563" s="3"/>
     </row>
-    <row r="564" ht="12.75" customHeight="1">
+    <row r="564" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -18754,7 +18781,7 @@
       <c r="AC564" s="3"/>
       <c r="AD564" s="3"/>
     </row>
-    <row r="565" ht="12.75" customHeight="1">
+    <row r="565" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -18786,7 +18813,7 @@
       <c r="AC565" s="3"/>
       <c r="AD565" s="3"/>
     </row>
-    <row r="566" ht="12.75" customHeight="1">
+    <row r="566" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -18818,7 +18845,7 @@
       <c r="AC566" s="3"/>
       <c r="AD566" s="3"/>
     </row>
-    <row r="567" ht="12.75" customHeight="1">
+    <row r="567" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -18850,7 +18877,7 @@
       <c r="AC567" s="3"/>
       <c r="AD567" s="3"/>
     </row>
-    <row r="568" ht="12.75" customHeight="1">
+    <row r="568" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -18882,7 +18909,7 @@
       <c r="AC568" s="3"/>
       <c r="AD568" s="3"/>
     </row>
-    <row r="569" ht="12.75" customHeight="1">
+    <row r="569" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -18914,7 +18941,7 @@
       <c r="AC569" s="3"/>
       <c r="AD569" s="3"/>
     </row>
-    <row r="570" ht="12.75" customHeight="1">
+    <row r="570" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -18946,7 +18973,7 @@
       <c r="AC570" s="3"/>
       <c r="AD570" s="3"/>
     </row>
-    <row r="571" ht="12.75" customHeight="1">
+    <row r="571" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -18978,7 +19005,7 @@
       <c r="AC571" s="3"/>
       <c r="AD571" s="3"/>
     </row>
-    <row r="572" ht="12.75" customHeight="1">
+    <row r="572" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -19010,7 +19037,7 @@
       <c r="AC572" s="3"/>
       <c r="AD572" s="3"/>
     </row>
-    <row r="573" ht="12.75" customHeight="1">
+    <row r="573" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -19042,7 +19069,7 @@
       <c r="AC573" s="3"/>
       <c r="AD573" s="3"/>
     </row>
-    <row r="574" ht="12.75" customHeight="1">
+    <row r="574" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -19074,7 +19101,7 @@
       <c r="AC574" s="3"/>
       <c r="AD574" s="3"/>
     </row>
-    <row r="575" ht="12.75" customHeight="1">
+    <row r="575" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -19106,7 +19133,7 @@
       <c r="AC575" s="3"/>
       <c r="AD575" s="3"/>
     </row>
-    <row r="576" ht="12.75" customHeight="1">
+    <row r="576" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -19138,7 +19165,7 @@
       <c r="AC576" s="3"/>
       <c r="AD576" s="3"/>
     </row>
-    <row r="577" ht="12.75" customHeight="1">
+    <row r="577" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -19170,7 +19197,7 @@
       <c r="AC577" s="3"/>
       <c r="AD577" s="3"/>
     </row>
-    <row r="578" ht="12.75" customHeight="1">
+    <row r="578" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -19202,7 +19229,7 @@
       <c r="AC578" s="3"/>
       <c r="AD578" s="3"/>
     </row>
-    <row r="579" ht="12.75" customHeight="1">
+    <row r="579" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -19234,7 +19261,7 @@
       <c r="AC579" s="3"/>
       <c r="AD579" s="3"/>
     </row>
-    <row r="580" ht="12.75" customHeight="1">
+    <row r="580" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -19266,7 +19293,7 @@
       <c r="AC580" s="3"/>
       <c r="AD580" s="3"/>
     </row>
-    <row r="581" ht="12.75" customHeight="1">
+    <row r="581" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -19298,7 +19325,7 @@
       <c r="AC581" s="3"/>
       <c r="AD581" s="3"/>
     </row>
-    <row r="582" ht="12.75" customHeight="1">
+    <row r="582" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -19330,7 +19357,7 @@
       <c r="AC582" s="3"/>
       <c r="AD582" s="3"/>
     </row>
-    <row r="583" ht="12.75" customHeight="1">
+    <row r="583" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -19362,7 +19389,7 @@
       <c r="AC583" s="3"/>
       <c r="AD583" s="3"/>
     </row>
-    <row r="584" ht="12.75" customHeight="1">
+    <row r="584" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -19394,7 +19421,7 @@
       <c r="AC584" s="3"/>
       <c r="AD584" s="3"/>
     </row>
-    <row r="585" ht="12.75" customHeight="1">
+    <row r="585" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -19426,7 +19453,7 @@
       <c r="AC585" s="3"/>
       <c r="AD585" s="3"/>
     </row>
-    <row r="586" ht="12.75" customHeight="1">
+    <row r="586" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -19458,7 +19485,7 @@
       <c r="AC586" s="3"/>
       <c r="AD586" s="3"/>
     </row>
-    <row r="587" ht="12.75" customHeight="1">
+    <row r="587" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -19490,7 +19517,7 @@
       <c r="AC587" s="3"/>
       <c r="AD587" s="3"/>
     </row>
-    <row r="588" ht="12.75" customHeight="1">
+    <row r="588" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -19522,7 +19549,7 @@
       <c r="AC588" s="3"/>
       <c r="AD588" s="3"/>
     </row>
-    <row r="589" ht="12.75" customHeight="1">
+    <row r="589" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -19554,7 +19581,7 @@
       <c r="AC589" s="3"/>
       <c r="AD589" s="3"/>
     </row>
-    <row r="590" ht="12.75" customHeight="1">
+    <row r="590" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -19586,7 +19613,7 @@
       <c r="AC590" s="3"/>
       <c r="AD590" s="3"/>
     </row>
-    <row r="591" ht="12.75" customHeight="1">
+    <row r="591" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -19618,7 +19645,7 @@
       <c r="AC591" s="3"/>
       <c r="AD591" s="3"/>
     </row>
-    <row r="592" ht="12.75" customHeight="1">
+    <row r="592" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -19650,7 +19677,7 @@
       <c r="AC592" s="3"/>
       <c r="AD592" s="3"/>
     </row>
-    <row r="593" ht="12.75" customHeight="1">
+    <row r="593" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -19682,7 +19709,7 @@
       <c r="AC593" s="3"/>
       <c r="AD593" s="3"/>
     </row>
-    <row r="594" ht="12.75" customHeight="1">
+    <row r="594" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -19714,7 +19741,7 @@
       <c r="AC594" s="3"/>
       <c r="AD594" s="3"/>
     </row>
-    <row r="595" ht="12.75" customHeight="1">
+    <row r="595" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -19746,7 +19773,7 @@
       <c r="AC595" s="3"/>
       <c r="AD595" s="3"/>
     </row>
-    <row r="596" ht="12.75" customHeight="1">
+    <row r="596" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -19778,7 +19805,7 @@
       <c r="AC596" s="3"/>
       <c r="AD596" s="3"/>
     </row>
-    <row r="597" ht="12.75" customHeight="1">
+    <row r="597" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -19810,7 +19837,7 @@
       <c r="AC597" s="3"/>
       <c r="AD597" s="3"/>
     </row>
-    <row r="598" ht="12.75" customHeight="1">
+    <row r="598" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -19842,7 +19869,7 @@
       <c r="AC598" s="3"/>
       <c r="AD598" s="3"/>
     </row>
-    <row r="599" ht="12.75" customHeight="1">
+    <row r="599" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -19874,7 +19901,7 @@
       <c r="AC599" s="3"/>
       <c r="AD599" s="3"/>
     </row>
-    <row r="600" ht="12.75" customHeight="1">
+    <row r="600" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -19906,7 +19933,7 @@
       <c r="AC600" s="3"/>
       <c r="AD600" s="3"/>
     </row>
-    <row r="601" ht="12.75" customHeight="1">
+    <row r="601" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -19938,7 +19965,7 @@
       <c r="AC601" s="3"/>
       <c r="AD601" s="3"/>
     </row>
-    <row r="602" ht="12.75" customHeight="1">
+    <row r="602" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -19970,7 +19997,7 @@
       <c r="AC602" s="3"/>
       <c r="AD602" s="3"/>
     </row>
-    <row r="603" ht="12.75" customHeight="1">
+    <row r="603" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -20002,7 +20029,7 @@
       <c r="AC603" s="3"/>
       <c r="AD603" s="3"/>
     </row>
-    <row r="604" ht="12.75" customHeight="1">
+    <row r="604" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -20034,7 +20061,7 @@
       <c r="AC604" s="3"/>
       <c r="AD604" s="3"/>
     </row>
-    <row r="605" ht="12.75" customHeight="1">
+    <row r="605" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -20066,7 +20093,7 @@
       <c r="AC605" s="3"/>
       <c r="AD605" s="3"/>
     </row>
-    <row r="606" ht="12.75" customHeight="1">
+    <row r="606" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -20098,7 +20125,7 @@
       <c r="AC606" s="3"/>
       <c r="AD606" s="3"/>
     </row>
-    <row r="607" ht="12.75" customHeight="1">
+    <row r="607" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -20130,7 +20157,7 @@
       <c r="AC607" s="3"/>
       <c r="AD607" s="3"/>
     </row>
-    <row r="608" ht="12.75" customHeight="1">
+    <row r="608" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -20162,7 +20189,7 @@
       <c r="AC608" s="3"/>
       <c r="AD608" s="3"/>
     </row>
-    <row r="609" ht="12.75" customHeight="1">
+    <row r="609" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -20194,7 +20221,7 @@
       <c r="AC609" s="3"/>
       <c r="AD609" s="3"/>
     </row>
-    <row r="610" ht="12.75" customHeight="1">
+    <row r="610" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -20226,7 +20253,7 @@
       <c r="AC610" s="3"/>
       <c r="AD610" s="3"/>
     </row>
-    <row r="611" ht="12.75" customHeight="1">
+    <row r="611" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -20258,7 +20285,7 @@
       <c r="AC611" s="3"/>
       <c r="AD611" s="3"/>
     </row>
-    <row r="612" ht="12.75" customHeight="1">
+    <row r="612" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -20290,7 +20317,7 @@
       <c r="AC612" s="3"/>
       <c r="AD612" s="3"/>
     </row>
-    <row r="613" ht="12.75" customHeight="1">
+    <row r="613" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -20322,7 +20349,7 @@
       <c r="AC613" s="3"/>
       <c r="AD613" s="3"/>
     </row>
-    <row r="614" ht="12.75" customHeight="1">
+    <row r="614" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -20354,7 +20381,7 @@
       <c r="AC614" s="3"/>
       <c r="AD614" s="3"/>
     </row>
-    <row r="615" ht="12.75" customHeight="1">
+    <row r="615" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -20386,7 +20413,7 @@
       <c r="AC615" s="3"/>
       <c r="AD615" s="3"/>
     </row>
-    <row r="616" ht="12.75" customHeight="1">
+    <row r="616" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -20418,7 +20445,7 @@
       <c r="AC616" s="3"/>
       <c r="AD616" s="3"/>
     </row>
-    <row r="617" ht="12.75" customHeight="1">
+    <row r="617" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -20450,7 +20477,7 @@
       <c r="AC617" s="3"/>
       <c r="AD617" s="3"/>
     </row>
-    <row r="618" ht="12.75" customHeight="1">
+    <row r="618" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -20482,7 +20509,7 @@
       <c r="AC618" s="3"/>
       <c r="AD618" s="3"/>
     </row>
-    <row r="619" ht="12.75" customHeight="1">
+    <row r="619" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -20514,7 +20541,7 @@
       <c r="AC619" s="3"/>
       <c r="AD619" s="3"/>
     </row>
-    <row r="620" ht="12.75" customHeight="1">
+    <row r="620" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -20546,7 +20573,7 @@
       <c r="AC620" s="3"/>
       <c r="AD620" s="3"/>
     </row>
-    <row r="621" ht="12.75" customHeight="1">
+    <row r="621" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -20578,7 +20605,7 @@
       <c r="AC621" s="3"/>
       <c r="AD621" s="3"/>
     </row>
-    <row r="622" ht="12.75" customHeight="1">
+    <row r="622" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -20610,7 +20637,7 @@
       <c r="AC622" s="3"/>
       <c r="AD622" s="3"/>
     </row>
-    <row r="623" ht="12.75" customHeight="1">
+    <row r="623" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -20642,7 +20669,7 @@
       <c r="AC623" s="3"/>
       <c r="AD623" s="3"/>
     </row>
-    <row r="624" ht="12.75" customHeight="1">
+    <row r="624" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -20674,7 +20701,7 @@
       <c r="AC624" s="3"/>
       <c r="AD624" s="3"/>
     </row>
-    <row r="625" ht="12.75" customHeight="1">
+    <row r="625" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -20706,7 +20733,7 @@
       <c r="AC625" s="3"/>
       <c r="AD625" s="3"/>
     </row>
-    <row r="626" ht="12.75" customHeight="1">
+    <row r="626" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -20738,7 +20765,7 @@
       <c r="AC626" s="3"/>
       <c r="AD626" s="3"/>
     </row>
-    <row r="627" ht="12.75" customHeight="1">
+    <row r="627" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -20770,7 +20797,7 @@
       <c r="AC627" s="3"/>
       <c r="AD627" s="3"/>
     </row>
-    <row r="628" ht="12.75" customHeight="1">
+    <row r="628" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -20802,7 +20829,7 @@
       <c r="AC628" s="3"/>
       <c r="AD628" s="3"/>
     </row>
-    <row r="629" ht="12.75" customHeight="1">
+    <row r="629" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -20834,7 +20861,7 @@
       <c r="AC629" s="3"/>
       <c r="AD629" s="3"/>
     </row>
-    <row r="630" ht="12.75" customHeight="1">
+    <row r="630" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -20866,7 +20893,7 @@
       <c r="AC630" s="3"/>
       <c r="AD630" s="3"/>
     </row>
-    <row r="631" ht="12.75" customHeight="1">
+    <row r="631" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -20898,7 +20925,7 @@
       <c r="AC631" s="3"/>
       <c r="AD631" s="3"/>
     </row>
-    <row r="632" ht="12.75" customHeight="1">
+    <row r="632" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -20930,7 +20957,7 @@
       <c r="AC632" s="3"/>
       <c r="AD632" s="3"/>
     </row>
-    <row r="633" ht="12.75" customHeight="1">
+    <row r="633" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -20962,7 +20989,7 @@
       <c r="AC633" s="3"/>
       <c r="AD633" s="3"/>
     </row>
-    <row r="634" ht="12.75" customHeight="1">
+    <row r="634" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -20994,7 +21021,7 @@
       <c r="AC634" s="3"/>
       <c r="AD634" s="3"/>
     </row>
-    <row r="635" ht="12.75" customHeight="1">
+    <row r="635" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -21026,7 +21053,7 @@
       <c r="AC635" s="3"/>
       <c r="AD635" s="3"/>
     </row>
-    <row r="636" ht="12.75" customHeight="1">
+    <row r="636" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -21058,7 +21085,7 @@
       <c r="AC636" s="3"/>
       <c r="AD636" s="3"/>
     </row>
-    <row r="637" ht="12.75" customHeight="1">
+    <row r="637" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -21090,7 +21117,7 @@
       <c r="AC637" s="3"/>
       <c r="AD637" s="3"/>
     </row>
-    <row r="638" ht="12.75" customHeight="1">
+    <row r="638" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -21122,7 +21149,7 @@
       <c r="AC638" s="3"/>
       <c r="AD638" s="3"/>
     </row>
-    <row r="639" ht="12.75" customHeight="1">
+    <row r="639" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -21154,7 +21181,7 @@
       <c r="AC639" s="3"/>
       <c r="AD639" s="3"/>
     </row>
-    <row r="640" ht="12.75" customHeight="1">
+    <row r="640" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -21186,7 +21213,7 @@
       <c r="AC640" s="3"/>
       <c r="AD640" s="3"/>
     </row>
-    <row r="641" ht="12.75" customHeight="1">
+    <row r="641" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -21218,7 +21245,7 @@
       <c r="AC641" s="3"/>
       <c r="AD641" s="3"/>
     </row>
-    <row r="642" ht="12.75" customHeight="1">
+    <row r="642" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -21250,7 +21277,7 @@
       <c r="AC642" s="3"/>
       <c r="AD642" s="3"/>
     </row>
-    <row r="643" ht="12.75" customHeight="1">
+    <row r="643" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -21282,7 +21309,7 @@
       <c r="AC643" s="3"/>
       <c r="AD643" s="3"/>
     </row>
-    <row r="644" ht="12.75" customHeight="1">
+    <row r="644" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -21314,7 +21341,7 @@
       <c r="AC644" s="3"/>
       <c r="AD644" s="3"/>
     </row>
-    <row r="645" ht="12.75" customHeight="1">
+    <row r="645" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -21346,7 +21373,7 @@
       <c r="AC645" s="3"/>
       <c r="AD645" s="3"/>
     </row>
-    <row r="646" ht="12.75" customHeight="1">
+    <row r="646" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -21378,7 +21405,7 @@
       <c r="AC646" s="3"/>
       <c r="AD646" s="3"/>
     </row>
-    <row r="647" ht="12.75" customHeight="1">
+    <row r="647" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -21410,7 +21437,7 @@
       <c r="AC647" s="3"/>
       <c r="AD647" s="3"/>
     </row>
-    <row r="648" ht="12.75" customHeight="1">
+    <row r="648" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -21442,7 +21469,7 @@
       <c r="AC648" s="3"/>
       <c r="AD648" s="3"/>
     </row>
-    <row r="649" ht="12.75" customHeight="1">
+    <row r="649" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -21474,7 +21501,7 @@
       <c r="AC649" s="3"/>
       <c r="AD649" s="3"/>
     </row>
-    <row r="650" ht="12.75" customHeight="1">
+    <row r="650" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -21506,7 +21533,7 @@
       <c r="AC650" s="3"/>
       <c r="AD650" s="3"/>
     </row>
-    <row r="651" ht="12.75" customHeight="1">
+    <row r="651" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -21538,7 +21565,7 @@
       <c r="AC651" s="3"/>
       <c r="AD651" s="3"/>
     </row>
-    <row r="652" ht="12.75" customHeight="1">
+    <row r="652" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -21570,7 +21597,7 @@
       <c r="AC652" s="3"/>
       <c r="AD652" s="3"/>
     </row>
-    <row r="653" ht="12.75" customHeight="1">
+    <row r="653" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -21602,7 +21629,7 @@
       <c r="AC653" s="3"/>
       <c r="AD653" s="3"/>
     </row>
-    <row r="654" ht="12.75" customHeight="1">
+    <row r="654" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -21634,7 +21661,7 @@
       <c r="AC654" s="3"/>
       <c r="AD654" s="3"/>
     </row>
-    <row r="655" ht="12.75" customHeight="1">
+    <row r="655" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -21666,7 +21693,7 @@
       <c r="AC655" s="3"/>
       <c r="AD655" s="3"/>
     </row>
-    <row r="656" ht="12.75" customHeight="1">
+    <row r="656" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -21698,7 +21725,7 @@
       <c r="AC656" s="3"/>
       <c r="AD656" s="3"/>
     </row>
-    <row r="657" ht="12.75" customHeight="1">
+    <row r="657" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -21730,7 +21757,7 @@
       <c r="AC657" s="3"/>
       <c r="AD657" s="3"/>
     </row>
-    <row r="658" ht="12.75" customHeight="1">
+    <row r="658" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -21762,7 +21789,7 @@
       <c r="AC658" s="3"/>
       <c r="AD658" s="3"/>
     </row>
-    <row r="659" ht="12.75" customHeight="1">
+    <row r="659" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -21794,7 +21821,7 @@
       <c r="AC659" s="3"/>
       <c r="AD659" s="3"/>
     </row>
-    <row r="660" ht="12.75" customHeight="1">
+    <row r="660" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -21826,7 +21853,7 @@
       <c r="AC660" s="3"/>
       <c r="AD660" s="3"/>
     </row>
-    <row r="661" ht="12.75" customHeight="1">
+    <row r="661" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -21858,7 +21885,7 @@
       <c r="AC661" s="3"/>
       <c r="AD661" s="3"/>
     </row>
-    <row r="662" ht="12.75" customHeight="1">
+    <row r="662" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -21890,7 +21917,7 @@
       <c r="AC662" s="3"/>
       <c r="AD662" s="3"/>
     </row>
-    <row r="663" ht="12.75" customHeight="1">
+    <row r="663" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -21922,7 +21949,7 @@
       <c r="AC663" s="3"/>
       <c r="AD663" s="3"/>
     </row>
-    <row r="664" ht="12.75" customHeight="1">
+    <row r="664" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -21954,7 +21981,7 @@
       <c r="AC664" s="3"/>
       <c r="AD664" s="3"/>
     </row>
-    <row r="665" ht="12.75" customHeight="1">
+    <row r="665" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -21986,7 +22013,7 @@
       <c r="AC665" s="3"/>
       <c r="AD665" s="3"/>
     </row>
-    <row r="666" ht="12.75" customHeight="1">
+    <row r="666" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -22018,7 +22045,7 @@
       <c r="AC666" s="3"/>
       <c r="AD666" s="3"/>
     </row>
-    <row r="667" ht="12.75" customHeight="1">
+    <row r="667" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -22050,7 +22077,7 @@
       <c r="AC667" s="3"/>
       <c r="AD667" s="3"/>
     </row>
-    <row r="668" ht="12.75" customHeight="1">
+    <row r="668" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -22082,7 +22109,7 @@
       <c r="AC668" s="3"/>
       <c r="AD668" s="3"/>
     </row>
-    <row r="669" ht="12.75" customHeight="1">
+    <row r="669" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -22114,7 +22141,7 @@
       <c r="AC669" s="3"/>
       <c r="AD669" s="3"/>
     </row>
-    <row r="670" ht="12.75" customHeight="1">
+    <row r="670" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -22146,7 +22173,7 @@
       <c r="AC670" s="3"/>
       <c r="AD670" s="3"/>
     </row>
-    <row r="671" ht="12.75" customHeight="1">
+    <row r="671" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -22178,7 +22205,7 @@
       <c r="AC671" s="3"/>
       <c r="AD671" s="3"/>
     </row>
-    <row r="672" ht="12.75" customHeight="1">
+    <row r="672" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -22210,7 +22237,7 @@
       <c r="AC672" s="3"/>
       <c r="AD672" s="3"/>
     </row>
-    <row r="673" ht="12.75" customHeight="1">
+    <row r="673" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -22242,7 +22269,7 @@
       <c r="AC673" s="3"/>
       <c r="AD673" s="3"/>
     </row>
-    <row r="674" ht="12.75" customHeight="1">
+    <row r="674" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -22274,7 +22301,7 @@
       <c r="AC674" s="3"/>
       <c r="AD674" s="3"/>
     </row>
-    <row r="675" ht="12.75" customHeight="1">
+    <row r="675" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -22306,7 +22333,7 @@
       <c r="AC675" s="3"/>
       <c r="AD675" s="3"/>
     </row>
-    <row r="676" ht="12.75" customHeight="1">
+    <row r="676" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -22338,7 +22365,7 @@
       <c r="AC676" s="3"/>
       <c r="AD676" s="3"/>
     </row>
-    <row r="677" ht="12.75" customHeight="1">
+    <row r="677" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -22370,7 +22397,7 @@
       <c r="AC677" s="3"/>
       <c r="AD677" s="3"/>
     </row>
-    <row r="678" ht="12.75" customHeight="1">
+    <row r="678" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -22402,7 +22429,7 @@
       <c r="AC678" s="3"/>
       <c r="AD678" s="3"/>
     </row>
-    <row r="679" ht="12.75" customHeight="1">
+    <row r="679" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -22434,7 +22461,7 @@
       <c r="AC679" s="3"/>
       <c r="AD679" s="3"/>
     </row>
-    <row r="680" ht="12.75" customHeight="1">
+    <row r="680" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -22466,7 +22493,7 @@
       <c r="AC680" s="3"/>
       <c r="AD680" s="3"/>
     </row>
-    <row r="681" ht="12.75" customHeight="1">
+    <row r="681" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -22498,7 +22525,7 @@
       <c r="AC681" s="3"/>
       <c r="AD681" s="3"/>
     </row>
-    <row r="682" ht="12.75" customHeight="1">
+    <row r="682" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -22530,7 +22557,7 @@
       <c r="AC682" s="3"/>
       <c r="AD682" s="3"/>
     </row>
-    <row r="683" ht="12.75" customHeight="1">
+    <row r="683" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -22562,7 +22589,7 @@
       <c r="AC683" s="3"/>
       <c r="AD683" s="3"/>
     </row>
-    <row r="684" ht="12.75" customHeight="1">
+    <row r="684" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -22594,7 +22621,7 @@
       <c r="AC684" s="3"/>
       <c r="AD684" s="3"/>
     </row>
-    <row r="685" ht="12.75" customHeight="1">
+    <row r="685" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -22626,7 +22653,7 @@
       <c r="AC685" s="3"/>
       <c r="AD685" s="3"/>
     </row>
-    <row r="686" ht="12.75" customHeight="1">
+    <row r="686" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -22658,7 +22685,7 @@
       <c r="AC686" s="3"/>
       <c r="AD686" s="3"/>
     </row>
-    <row r="687" ht="12.75" customHeight="1">
+    <row r="687" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -22690,7 +22717,7 @@
       <c r="AC687" s="3"/>
       <c r="AD687" s="3"/>
     </row>
-    <row r="688" ht="12.75" customHeight="1">
+    <row r="688" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -22722,7 +22749,7 @@
       <c r="AC688" s="3"/>
       <c r="AD688" s="3"/>
     </row>
-    <row r="689" ht="12.75" customHeight="1">
+    <row r="689" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -22754,7 +22781,7 @@
       <c r="AC689" s="3"/>
       <c r="AD689" s="3"/>
     </row>
-    <row r="690" ht="12.75" customHeight="1">
+    <row r="690" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -22786,7 +22813,7 @@
       <c r="AC690" s="3"/>
       <c r="AD690" s="3"/>
     </row>
-    <row r="691" ht="12.75" customHeight="1">
+    <row r="691" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -22818,7 +22845,7 @@
       <c r="AC691" s="3"/>
       <c r="AD691" s="3"/>
     </row>
-    <row r="692" ht="12.75" customHeight="1">
+    <row r="692" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -22850,7 +22877,7 @@
       <c r="AC692" s="3"/>
       <c r="AD692" s="3"/>
     </row>
-    <row r="693" ht="12.75" customHeight="1">
+    <row r="693" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -22882,7 +22909,7 @@
       <c r="AC693" s="3"/>
       <c r="AD693" s="3"/>
     </row>
-    <row r="694" ht="12.75" customHeight="1">
+    <row r="694" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -22914,7 +22941,7 @@
       <c r="AC694" s="3"/>
       <c r="AD694" s="3"/>
     </row>
-    <row r="695" ht="12.75" customHeight="1">
+    <row r="695" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -22946,7 +22973,7 @@
       <c r="AC695" s="3"/>
       <c r="AD695" s="3"/>
     </row>
-    <row r="696" ht="12.75" customHeight="1">
+    <row r="696" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -22978,7 +23005,7 @@
       <c r="AC696" s="3"/>
       <c r="AD696" s="3"/>
     </row>
-    <row r="697" ht="12.75" customHeight="1">
+    <row r="697" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -23010,7 +23037,7 @@
       <c r="AC697" s="3"/>
       <c r="AD697" s="3"/>
     </row>
-    <row r="698" ht="12.75" customHeight="1">
+    <row r="698" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -23042,7 +23069,7 @@
       <c r="AC698" s="3"/>
       <c r="AD698" s="3"/>
     </row>
-    <row r="699" ht="12.75" customHeight="1">
+    <row r="699" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -23074,7 +23101,7 @@
       <c r="AC699" s="3"/>
       <c r="AD699" s="3"/>
     </row>
-    <row r="700" ht="12.75" customHeight="1">
+    <row r="700" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -23106,7 +23133,7 @@
       <c r="AC700" s="3"/>
       <c r="AD700" s="3"/>
     </row>
-    <row r="701" ht="12.75" customHeight="1">
+    <row r="701" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -23138,7 +23165,7 @@
       <c r="AC701" s="3"/>
       <c r="AD701" s="3"/>
     </row>
-    <row r="702" ht="12.75" customHeight="1">
+    <row r="702" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -23170,7 +23197,7 @@
       <c r="AC702" s="3"/>
       <c r="AD702" s="3"/>
     </row>
-    <row r="703" ht="12.75" customHeight="1">
+    <row r="703" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -23202,7 +23229,7 @@
       <c r="AC703" s="3"/>
       <c r="AD703" s="3"/>
     </row>
-    <row r="704" ht="12.75" customHeight="1">
+    <row r="704" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -23234,7 +23261,7 @@
       <c r="AC704" s="3"/>
       <c r="AD704" s="3"/>
     </row>
-    <row r="705" ht="12.75" customHeight="1">
+    <row r="705" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -23266,7 +23293,7 @@
       <c r="AC705" s="3"/>
       <c r="AD705" s="3"/>
     </row>
-    <row r="706" ht="12.75" customHeight="1">
+    <row r="706" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -23298,7 +23325,7 @@
       <c r="AC706" s="3"/>
       <c r="AD706" s="3"/>
     </row>
-    <row r="707" ht="12.75" customHeight="1">
+    <row r="707" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -23330,7 +23357,7 @@
       <c r="AC707" s="3"/>
       <c r="AD707" s="3"/>
     </row>
-    <row r="708" ht="12.75" customHeight="1">
+    <row r="708" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -23362,7 +23389,7 @@
       <c r="AC708" s="3"/>
       <c r="AD708" s="3"/>
     </row>
-    <row r="709" ht="12.75" customHeight="1">
+    <row r="709" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -23394,7 +23421,7 @@
       <c r="AC709" s="3"/>
       <c r="AD709" s="3"/>
     </row>
-    <row r="710" ht="12.75" customHeight="1">
+    <row r="710" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -23426,7 +23453,7 @@
       <c r="AC710" s="3"/>
       <c r="AD710" s="3"/>
     </row>
-    <row r="711" ht="12.75" customHeight="1">
+    <row r="711" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -23458,7 +23485,7 @@
       <c r="AC711" s="3"/>
       <c r="AD711" s="3"/>
     </row>
-    <row r="712" ht="12.75" customHeight="1">
+    <row r="712" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -23490,7 +23517,7 @@
       <c r="AC712" s="3"/>
       <c r="AD712" s="3"/>
     </row>
-    <row r="713" ht="12.75" customHeight="1">
+    <row r="713" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -23522,7 +23549,7 @@
       <c r="AC713" s="3"/>
       <c r="AD713" s="3"/>
     </row>
-    <row r="714" ht="12.75" customHeight="1">
+    <row r="714" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -23554,7 +23581,7 @@
       <c r="AC714" s="3"/>
       <c r="AD714" s="3"/>
     </row>
-    <row r="715" ht="12.75" customHeight="1">
+    <row r="715" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -23586,7 +23613,7 @@
       <c r="AC715" s="3"/>
       <c r="AD715" s="3"/>
     </row>
-    <row r="716" ht="12.75" customHeight="1">
+    <row r="716" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -23618,7 +23645,7 @@
       <c r="AC716" s="3"/>
       <c r="AD716" s="3"/>
     </row>
-    <row r="717" ht="12.75" customHeight="1">
+    <row r="717" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -23650,7 +23677,7 @@
       <c r="AC717" s="3"/>
       <c r="AD717" s="3"/>
     </row>
-    <row r="718" ht="12.75" customHeight="1">
+    <row r="718" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -23682,7 +23709,7 @@
       <c r="AC718" s="3"/>
       <c r="AD718" s="3"/>
     </row>
-    <row r="719" ht="12.75" customHeight="1">
+    <row r="719" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -23714,7 +23741,7 @@
       <c r="AC719" s="3"/>
       <c r="AD719" s="3"/>
     </row>
-    <row r="720" ht="12.75" customHeight="1">
+    <row r="720" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -23746,7 +23773,7 @@
       <c r="AC720" s="3"/>
       <c r="AD720" s="3"/>
     </row>
-    <row r="721" ht="12.75" customHeight="1">
+    <row r="721" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -23778,7 +23805,7 @@
       <c r="AC721" s="3"/>
       <c r="AD721" s="3"/>
     </row>
-    <row r="722" ht="12.75" customHeight="1">
+    <row r="722" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -23810,7 +23837,7 @@
       <c r="AC722" s="3"/>
       <c r="AD722" s="3"/>
     </row>
-    <row r="723" ht="12.75" customHeight="1">
+    <row r="723" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -23842,7 +23869,7 @@
       <c r="AC723" s="3"/>
       <c r="AD723" s="3"/>
     </row>
-    <row r="724" ht="12.75" customHeight="1">
+    <row r="724" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -23874,7 +23901,7 @@
       <c r="AC724" s="3"/>
       <c r="AD724" s="3"/>
     </row>
-    <row r="725" ht="12.75" customHeight="1">
+    <row r="725" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -23906,7 +23933,7 @@
       <c r="AC725" s="3"/>
       <c r="AD725" s="3"/>
     </row>
-    <row r="726" ht="12.75" customHeight="1">
+    <row r="726" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -23938,7 +23965,7 @@
       <c r="AC726" s="3"/>
       <c r="AD726" s="3"/>
     </row>
-    <row r="727" ht="12.75" customHeight="1">
+    <row r="727" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -23970,7 +23997,7 @@
       <c r="AC727" s="3"/>
       <c r="AD727" s="3"/>
     </row>
-    <row r="728" ht="12.75" customHeight="1">
+    <row r="728" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -24002,7 +24029,7 @@
       <c r="AC728" s="3"/>
       <c r="AD728" s="3"/>
     </row>
-    <row r="729" ht="12.75" customHeight="1">
+    <row r="729" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -24034,7 +24061,7 @@
       <c r="AC729" s="3"/>
       <c r="AD729" s="3"/>
     </row>
-    <row r="730" ht="12.75" customHeight="1">
+    <row r="730" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -24066,7 +24093,7 @@
       <c r="AC730" s="3"/>
       <c r="AD730" s="3"/>
     </row>
-    <row r="731" ht="12.75" customHeight="1">
+    <row r="731" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -24098,7 +24125,7 @@
       <c r="AC731" s="3"/>
       <c r="AD731" s="3"/>
     </row>
-    <row r="732" ht="12.75" customHeight="1">
+    <row r="732" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -24130,7 +24157,7 @@
       <c r="AC732" s="3"/>
       <c r="AD732" s="3"/>
     </row>
-    <row r="733" ht="12.75" customHeight="1">
+    <row r="733" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -24162,7 +24189,7 @@
       <c r="AC733" s="3"/>
       <c r="AD733" s="3"/>
     </row>
-    <row r="734" ht="12.75" customHeight="1">
+    <row r="734" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -24194,7 +24221,7 @@
       <c r="AC734" s="3"/>
       <c r="AD734" s="3"/>
     </row>
-    <row r="735" ht="12.75" customHeight="1">
+    <row r="735" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -24226,7 +24253,7 @@
       <c r="AC735" s="3"/>
       <c r="AD735" s="3"/>
     </row>
-    <row r="736" ht="12.75" customHeight="1">
+    <row r="736" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -24258,7 +24285,7 @@
       <c r="AC736" s="3"/>
       <c r="AD736" s="3"/>
     </row>
-    <row r="737" ht="12.75" customHeight="1">
+    <row r="737" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -24290,7 +24317,7 @@
       <c r="AC737" s="3"/>
       <c r="AD737" s="3"/>
     </row>
-    <row r="738" ht="12.75" customHeight="1">
+    <row r="738" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -24322,7 +24349,7 @@
       <c r="AC738" s="3"/>
       <c r="AD738" s="3"/>
     </row>
-    <row r="739" ht="12.75" customHeight="1">
+    <row r="739" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -24354,7 +24381,7 @@
       <c r="AC739" s="3"/>
       <c r="AD739" s="3"/>
     </row>
-    <row r="740" ht="12.75" customHeight="1">
+    <row r="740" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -24386,7 +24413,7 @@
       <c r="AC740" s="3"/>
       <c r="AD740" s="3"/>
     </row>
-    <row r="741" ht="12.75" customHeight="1">
+    <row r="741" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -24418,7 +24445,7 @@
       <c r="AC741" s="3"/>
       <c r="AD741" s="3"/>
     </row>
-    <row r="742" ht="12.75" customHeight="1">
+    <row r="742" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -24450,7 +24477,7 @@
       <c r="AC742" s="3"/>
       <c r="AD742" s="3"/>
     </row>
-    <row r="743" ht="12.75" customHeight="1">
+    <row r="743" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -24482,7 +24509,7 @@
       <c r="AC743" s="3"/>
       <c r="AD743" s="3"/>
     </row>
-    <row r="744" ht="12.75" customHeight="1">
+    <row r="744" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -24514,7 +24541,7 @@
       <c r="AC744" s="3"/>
       <c r="AD744" s="3"/>
     </row>
-    <row r="745" ht="12.75" customHeight="1">
+    <row r="745" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -24546,7 +24573,7 @@
       <c r="AC745" s="3"/>
       <c r="AD745" s="3"/>
     </row>
-    <row r="746" ht="12.75" customHeight="1">
+    <row r="746" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -24578,7 +24605,7 @@
       <c r="AC746" s="3"/>
       <c r="AD746" s="3"/>
     </row>
-    <row r="747" ht="12.75" customHeight="1">
+    <row r="747" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -24610,7 +24637,7 @@
       <c r="AC747" s="3"/>
       <c r="AD747" s="3"/>
     </row>
-    <row r="748" ht="12.75" customHeight="1">
+    <row r="748" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -24642,7 +24669,7 @@
       <c r="AC748" s="3"/>
       <c r="AD748" s="3"/>
     </row>
-    <row r="749" ht="12.75" customHeight="1">
+    <row r="749" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -24674,7 +24701,7 @@
       <c r="AC749" s="3"/>
       <c r="AD749" s="3"/>
     </row>
-    <row r="750" ht="12.75" customHeight="1">
+    <row r="750" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -24706,7 +24733,7 @@
       <c r="AC750" s="3"/>
       <c r="AD750" s="3"/>
     </row>
-    <row r="751" ht="12.75" customHeight="1">
+    <row r="751" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -24738,7 +24765,7 @@
       <c r="AC751" s="3"/>
       <c r="AD751" s="3"/>
     </row>
-    <row r="752" ht="12.75" customHeight="1">
+    <row r="752" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -24770,7 +24797,7 @@
       <c r="AC752" s="3"/>
       <c r="AD752" s="3"/>
     </row>
-    <row r="753" ht="12.75" customHeight="1">
+    <row r="753" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -24802,7 +24829,7 @@
       <c r="AC753" s="3"/>
       <c r="AD753" s="3"/>
     </row>
-    <row r="754" ht="12.75" customHeight="1">
+    <row r="754" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -24834,7 +24861,7 @@
       <c r="AC754" s="3"/>
       <c r="AD754" s="3"/>
     </row>
-    <row r="755" ht="12.75" customHeight="1">
+    <row r="755" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -24866,7 +24893,7 @@
       <c r="AC755" s="3"/>
       <c r="AD755" s="3"/>
     </row>
-    <row r="756" ht="12.75" customHeight="1">
+    <row r="756" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -24898,7 +24925,7 @@
       <c r="AC756" s="3"/>
       <c r="AD756" s="3"/>
     </row>
-    <row r="757" ht="12.75" customHeight="1">
+    <row r="757" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -24930,7 +24957,7 @@
       <c r="AC757" s="3"/>
       <c r="AD757" s="3"/>
     </row>
-    <row r="758" ht="12.75" customHeight="1">
+    <row r="758" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -24962,7 +24989,7 @@
       <c r="AC758" s="3"/>
       <c r="AD758" s="3"/>
     </row>
-    <row r="759" ht="12.75" customHeight="1">
+    <row r="759" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -24994,7 +25021,7 @@
       <c r="AC759" s="3"/>
       <c r="AD759" s="3"/>
     </row>
-    <row r="760" ht="12.75" customHeight="1">
+    <row r="760" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -25026,7 +25053,7 @@
       <c r="AC760" s="3"/>
       <c r="AD760" s="3"/>
     </row>
-    <row r="761" ht="12.75" customHeight="1">
+    <row r="761" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -25058,7 +25085,7 @@
       <c r="AC761" s="3"/>
       <c r="AD761" s="3"/>
     </row>
-    <row r="762" ht="12.75" customHeight="1">
+    <row r="762" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -25090,7 +25117,7 @@
       <c r="AC762" s="3"/>
       <c r="AD762" s="3"/>
     </row>
-    <row r="763" ht="12.75" customHeight="1">
+    <row r="763" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -25122,7 +25149,7 @@
       <c r="AC763" s="3"/>
       <c r="AD763" s="3"/>
     </row>
-    <row r="764" ht="12.75" customHeight="1">
+    <row r="764" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -25154,7 +25181,7 @@
       <c r="AC764" s="3"/>
       <c r="AD764" s="3"/>
     </row>
-    <row r="765" ht="12.75" customHeight="1">
+    <row r="765" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -25186,7 +25213,7 @@
       <c r="AC765" s="3"/>
       <c r="AD765" s="3"/>
     </row>
-    <row r="766" ht="12.75" customHeight="1">
+    <row r="766" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -25218,7 +25245,7 @@
       <c r="AC766" s="3"/>
       <c r="AD766" s="3"/>
     </row>
-    <row r="767" ht="12.75" customHeight="1">
+    <row r="767" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -25250,7 +25277,7 @@
       <c r="AC767" s="3"/>
       <c r="AD767" s="3"/>
     </row>
-    <row r="768" ht="12.75" customHeight="1">
+    <row r="768" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -25282,7 +25309,7 @@
       <c r="AC768" s="3"/>
       <c r="AD768" s="3"/>
     </row>
-    <row r="769" ht="12.75" customHeight="1">
+    <row r="769" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -25314,7 +25341,7 @@
       <c r="AC769" s="3"/>
       <c r="AD769" s="3"/>
     </row>
-    <row r="770" ht="12.75" customHeight="1">
+    <row r="770" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -25346,7 +25373,7 @@
       <c r="AC770" s="3"/>
       <c r="AD770" s="3"/>
     </row>
-    <row r="771" ht="12.75" customHeight="1">
+    <row r="771" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -25378,7 +25405,7 @@
       <c r="AC771" s="3"/>
       <c r="AD771" s="3"/>
     </row>
-    <row r="772" ht="12.75" customHeight="1">
+    <row r="772" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -25410,7 +25437,7 @@
       <c r="AC772" s="3"/>
       <c r="AD772" s="3"/>
     </row>
-    <row r="773" ht="12.75" customHeight="1">
+    <row r="773" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -25442,7 +25469,7 @@
       <c r="AC773" s="3"/>
       <c r="AD773" s="3"/>
     </row>
-    <row r="774" ht="12.75" customHeight="1">
+    <row r="774" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -25474,7 +25501,7 @@
       <c r="AC774" s="3"/>
       <c r="AD774" s="3"/>
     </row>
-    <row r="775" ht="12.75" customHeight="1">
+    <row r="775" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -25506,7 +25533,7 @@
       <c r="AC775" s="3"/>
       <c r="AD775" s="3"/>
     </row>
-    <row r="776" ht="12.75" customHeight="1">
+    <row r="776" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -25538,7 +25565,7 @@
       <c r="AC776" s="3"/>
       <c r="AD776" s="3"/>
     </row>
-    <row r="777" ht="12.75" customHeight="1">
+    <row r="777" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -25570,7 +25597,7 @@
       <c r="AC777" s="3"/>
       <c r="AD777" s="3"/>
     </row>
-    <row r="778" ht="12.75" customHeight="1">
+    <row r="778" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -25602,7 +25629,7 @@
       <c r="AC778" s="3"/>
       <c r="AD778" s="3"/>
     </row>
-    <row r="779" ht="12.75" customHeight="1">
+    <row r="779" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -25634,7 +25661,7 @@
       <c r="AC779" s="3"/>
       <c r="AD779" s="3"/>
     </row>
-    <row r="780" ht="12.75" customHeight="1">
+    <row r="780" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -25666,7 +25693,7 @@
       <c r="AC780" s="3"/>
       <c r="AD780" s="3"/>
     </row>
-    <row r="781" ht="12.75" customHeight="1">
+    <row r="781" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -25698,7 +25725,7 @@
       <c r="AC781" s="3"/>
       <c r="AD781" s="3"/>
     </row>
-    <row r="782" ht="12.75" customHeight="1">
+    <row r="782" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -25730,7 +25757,7 @@
       <c r="AC782" s="3"/>
       <c r="AD782" s="3"/>
     </row>
-    <row r="783" ht="12.75" customHeight="1">
+    <row r="783" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -25762,7 +25789,7 @@
       <c r="AC783" s="3"/>
       <c r="AD783" s="3"/>
     </row>
-    <row r="784" ht="12.75" customHeight="1">
+    <row r="784" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -25794,7 +25821,7 @@
       <c r="AC784" s="3"/>
       <c r="AD784" s="3"/>
     </row>
-    <row r="785" ht="12.75" customHeight="1">
+    <row r="785" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -25826,7 +25853,7 @@
       <c r="AC785" s="3"/>
       <c r="AD785" s="3"/>
     </row>
-    <row r="786" ht="12.75" customHeight="1">
+    <row r="786" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -25858,7 +25885,7 @@
       <c r="AC786" s="3"/>
       <c r="AD786" s="3"/>
     </row>
-    <row r="787" ht="12.75" customHeight="1">
+    <row r="787" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -25890,7 +25917,7 @@
       <c r="AC787" s="3"/>
       <c r="AD787" s="3"/>
     </row>
-    <row r="788" ht="12.75" customHeight="1">
+    <row r="788" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -25922,7 +25949,7 @@
       <c r="AC788" s="3"/>
       <c r="AD788" s="3"/>
     </row>
-    <row r="789" ht="12.75" customHeight="1">
+    <row r="789" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -25954,7 +25981,7 @@
       <c r="AC789" s="3"/>
       <c r="AD789" s="3"/>
     </row>
-    <row r="790" ht="12.75" customHeight="1">
+    <row r="790" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -25986,7 +26013,7 @@
       <c r="AC790" s="3"/>
       <c r="AD790" s="3"/>
     </row>
-    <row r="791" ht="12.75" customHeight="1">
+    <row r="791" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -26018,7 +26045,7 @@
       <c r="AC791" s="3"/>
       <c r="AD791" s="3"/>
     </row>
-    <row r="792" ht="12.75" customHeight="1">
+    <row r="792" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -26050,7 +26077,7 @@
       <c r="AC792" s="3"/>
       <c r="AD792" s="3"/>
     </row>
-    <row r="793" ht="12.75" customHeight="1">
+    <row r="793" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -26082,7 +26109,7 @@
       <c r="AC793" s="3"/>
       <c r="AD793" s="3"/>
     </row>
-    <row r="794" ht="12.75" customHeight="1">
+    <row r="794" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -26114,7 +26141,7 @@
       <c r="AC794" s="3"/>
       <c r="AD794" s="3"/>
     </row>
-    <row r="795" ht="12.75" customHeight="1">
+    <row r="795" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -26146,7 +26173,7 @@
       <c r="AC795" s="3"/>
       <c r="AD795" s="3"/>
     </row>
-    <row r="796" ht="12.75" customHeight="1">
+    <row r="796" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -26178,7 +26205,7 @@
       <c r="AC796" s="3"/>
       <c r="AD796" s="3"/>
     </row>
-    <row r="797" ht="12.75" customHeight="1">
+    <row r="797" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -26210,7 +26237,7 @@
       <c r="AC797" s="3"/>
       <c r="AD797" s="3"/>
     </row>
-    <row r="798" ht="12.75" customHeight="1">
+    <row r="798" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -26242,7 +26269,7 @@
       <c r="AC798" s="3"/>
       <c r="AD798" s="3"/>
     </row>
-    <row r="799" ht="12.75" customHeight="1">
+    <row r="799" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -26274,7 +26301,7 @@
       <c r="AC799" s="3"/>
       <c r="AD799" s="3"/>
     </row>
-    <row r="800" ht="12.75" customHeight="1">
+    <row r="800" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -26306,7 +26333,7 @@
       <c r="AC800" s="3"/>
       <c r="AD800" s="3"/>
     </row>
-    <row r="801" ht="12.75" customHeight="1">
+    <row r="801" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -26338,7 +26365,7 @@
       <c r="AC801" s="3"/>
       <c r="AD801" s="3"/>
     </row>
-    <row r="802" ht="12.75" customHeight="1">
+    <row r="802" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -26370,7 +26397,7 @@
       <c r="AC802" s="3"/>
       <c r="AD802" s="3"/>
     </row>
-    <row r="803" ht="12.75" customHeight="1">
+    <row r="803" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -26402,7 +26429,7 @@
       <c r="AC803" s="3"/>
       <c r="AD803" s="3"/>
     </row>
-    <row r="804" ht="12.75" customHeight="1">
+    <row r="804" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -26434,7 +26461,7 @@
       <c r="AC804" s="3"/>
       <c r="AD804" s="3"/>
     </row>
-    <row r="805" ht="12.75" customHeight="1">
+    <row r="805" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -26466,7 +26493,7 @@
       <c r="AC805" s="3"/>
       <c r="AD805" s="3"/>
     </row>
-    <row r="806" ht="12.75" customHeight="1">
+    <row r="806" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -26498,7 +26525,7 @@
       <c r="AC806" s="3"/>
       <c r="AD806" s="3"/>
     </row>
-    <row r="807" ht="12.75" customHeight="1">
+    <row r="807" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -26530,7 +26557,7 @@
       <c r="AC807" s="3"/>
       <c r="AD807" s="3"/>
     </row>
-    <row r="808" ht="12.75" customHeight="1">
+    <row r="808" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -26562,7 +26589,7 @@
       <c r="AC808" s="3"/>
       <c r="AD808" s="3"/>
     </row>
-    <row r="809" ht="12.75" customHeight="1">
+    <row r="809" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -26594,7 +26621,7 @@
       <c r="AC809" s="3"/>
       <c r="AD809" s="3"/>
     </row>
-    <row r="810" ht="12.75" customHeight="1">
+    <row r="810" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -26626,7 +26653,7 @@
       <c r="AC810" s="3"/>
       <c r="AD810" s="3"/>
     </row>
-    <row r="811" ht="12.75" customHeight="1">
+    <row r="811" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -26658,7 +26685,7 @@
       <c r="AC811" s="3"/>
       <c r="AD811" s="3"/>
     </row>
-    <row r="812" ht="12.75" customHeight="1">
+    <row r="812" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -26690,7 +26717,7 @@
       <c r="AC812" s="3"/>
       <c r="AD812" s="3"/>
     </row>
-    <row r="813" ht="12.75" customHeight="1">
+    <row r="813" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -26722,7 +26749,7 @@
       <c r="AC813" s="3"/>
       <c r="AD813" s="3"/>
     </row>
-    <row r="814" ht="12.75" customHeight="1">
+    <row r="814" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -26754,7 +26781,7 @@
       <c r="AC814" s="3"/>
       <c r="AD814" s="3"/>
     </row>
-    <row r="815" ht="12.75" customHeight="1">
+    <row r="815" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -26786,7 +26813,7 @@
       <c r="AC815" s="3"/>
       <c r="AD815" s="3"/>
     </row>
-    <row r="816" ht="12.75" customHeight="1">
+    <row r="816" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -26818,7 +26845,7 @@
       <c r="AC816" s="3"/>
       <c r="AD816" s="3"/>
     </row>
-    <row r="817" ht="12.75" customHeight="1">
+    <row r="817" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -26850,7 +26877,7 @@
       <c r="AC817" s="3"/>
       <c r="AD817" s="3"/>
     </row>
-    <row r="818" ht="12.75" customHeight="1">
+    <row r="818" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -26882,7 +26909,7 @@
       <c r="AC818" s="3"/>
       <c r="AD818" s="3"/>
     </row>
-    <row r="819" ht="12.75" customHeight="1">
+    <row r="819" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -26914,7 +26941,7 @@
       <c r="AC819" s="3"/>
       <c r="AD819" s="3"/>
     </row>
-    <row r="820" ht="12.75" customHeight="1">
+    <row r="820" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -26946,7 +26973,7 @@
       <c r="AC820" s="3"/>
       <c r="AD820" s="3"/>
     </row>
-    <row r="821" ht="12.75" customHeight="1">
+    <row r="821" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -26978,7 +27005,7 @@
       <c r="AC821" s="3"/>
       <c r="AD821" s="3"/>
     </row>
-    <row r="822" ht="12.75" customHeight="1">
+    <row r="822" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -27010,7 +27037,7 @@
       <c r="AC822" s="3"/>
       <c r="AD822" s="3"/>
     </row>
-    <row r="823" ht="12.75" customHeight="1">
+    <row r="823" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -27042,7 +27069,7 @@
       <c r="AC823" s="3"/>
       <c r="AD823" s="3"/>
     </row>
-    <row r="824" ht="12.75" customHeight="1">
+    <row r="824" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -27074,7 +27101,7 @@
       <c r="AC824" s="3"/>
       <c r="AD824" s="3"/>
     </row>
-    <row r="825" ht="12.75" customHeight="1">
+    <row r="825" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -27106,7 +27133,7 @@
       <c r="AC825" s="3"/>
       <c r="AD825" s="3"/>
     </row>
-    <row r="826" ht="12.75" customHeight="1">
+    <row r="826" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -27138,7 +27165,7 @@
       <c r="AC826" s="3"/>
       <c r="AD826" s="3"/>
     </row>
-    <row r="827" ht="12.75" customHeight="1">
+    <row r="827" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -27170,7 +27197,7 @@
       <c r="AC827" s="3"/>
       <c r="AD827" s="3"/>
     </row>
-    <row r="828" ht="12.75" customHeight="1">
+    <row r="828" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -27202,7 +27229,7 @@
       <c r="AC828" s="3"/>
       <c r="AD828" s="3"/>
     </row>
-    <row r="829" ht="12.75" customHeight="1">
+    <row r="829" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -27234,7 +27261,7 @@
       <c r="AC829" s="3"/>
       <c r="AD829" s="3"/>
     </row>
-    <row r="830" ht="12.75" customHeight="1">
+    <row r="830" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -27266,7 +27293,7 @@
       <c r="AC830" s="3"/>
       <c r="AD830" s="3"/>
     </row>
-    <row r="831" ht="12.75" customHeight="1">
+    <row r="831" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -27298,7 +27325,7 @@
       <c r="AC831" s="3"/>
       <c r="AD831" s="3"/>
     </row>
-    <row r="832" ht="12.75" customHeight="1">
+    <row r="832" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -27330,7 +27357,7 @@
       <c r="AC832" s="3"/>
       <c r="AD832" s="3"/>
     </row>
-    <row r="833" ht="12.75" customHeight="1">
+    <row r="833" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -27362,7 +27389,7 @@
       <c r="AC833" s="3"/>
       <c r="AD833" s="3"/>
     </row>
-    <row r="834" ht="12.75" customHeight="1">
+    <row r="834" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -27394,7 +27421,7 @@
       <c r="AC834" s="3"/>
       <c r="AD834" s="3"/>
     </row>
-    <row r="835" ht="12.75" customHeight="1">
+    <row r="835" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -27426,7 +27453,7 @@
       <c r="AC835" s="3"/>
       <c r="AD835" s="3"/>
     </row>
-    <row r="836" ht="12.75" customHeight="1">
+    <row r="836" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -27458,7 +27485,7 @@
       <c r="AC836" s="3"/>
       <c r="AD836" s="3"/>
     </row>
-    <row r="837" ht="12.75" customHeight="1">
+    <row r="837" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -27490,7 +27517,7 @@
       <c r="AC837" s="3"/>
       <c r="AD837" s="3"/>
     </row>
-    <row r="838" ht="12.75" customHeight="1">
+    <row r="838" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -27522,7 +27549,7 @@
       <c r="AC838" s="3"/>
       <c r="AD838" s="3"/>
     </row>
-    <row r="839" ht="12.75" customHeight="1">
+    <row r="839" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -27554,7 +27581,7 @@
       <c r="AC839" s="3"/>
       <c r="AD839" s="3"/>
     </row>
-    <row r="840" ht="12.75" customHeight="1">
+    <row r="840" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -27586,7 +27613,7 @@
       <c r="AC840" s="3"/>
       <c r="AD840" s="3"/>
     </row>
-    <row r="841" ht="12.75" customHeight="1">
+    <row r="841" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -27618,7 +27645,7 @@
       <c r="AC841" s="3"/>
       <c r="AD841" s="3"/>
     </row>
-    <row r="842" ht="12.75" customHeight="1">
+    <row r="842" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -27650,7 +27677,7 @@
       <c r="AC842" s="3"/>
       <c r="AD842" s="3"/>
     </row>
-    <row r="843" ht="12.75" customHeight="1">
+    <row r="843" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -27682,7 +27709,7 @@
       <c r="AC843" s="3"/>
       <c r="AD843" s="3"/>
     </row>
-    <row r="844" ht="12.75" customHeight="1">
+    <row r="844" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -27714,7 +27741,7 @@
       <c r="AC844" s="3"/>
       <c r="AD844" s="3"/>
     </row>
-    <row r="845" ht="12.75" customHeight="1">
+    <row r="845" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -27746,7 +27773,7 @@
       <c r="AC845" s="3"/>
       <c r="AD845" s="3"/>
     </row>
-    <row r="846" ht="12.75" customHeight="1">
+    <row r="846" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -27778,7 +27805,7 @@
       <c r="AC846" s="3"/>
       <c r="AD846" s="3"/>
     </row>
-    <row r="847" ht="12.75" customHeight="1">
+    <row r="847" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -27810,7 +27837,7 @@
       <c r="AC847" s="3"/>
       <c r="AD847" s="3"/>
     </row>
-    <row r="848" ht="12.75" customHeight="1">
+    <row r="848" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -27842,7 +27869,7 @@
       <c r="AC848" s="3"/>
       <c r="AD848" s="3"/>
     </row>
-    <row r="849" ht="12.75" customHeight="1">
+    <row r="849" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -27874,7 +27901,7 @@
       <c r="AC849" s="3"/>
       <c r="AD849" s="3"/>
     </row>
-    <row r="850" ht="12.75" customHeight="1">
+    <row r="850" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -27906,7 +27933,7 @@
       <c r="AC850" s="3"/>
       <c r="AD850" s="3"/>
     </row>
-    <row r="851" ht="12.75" customHeight="1">
+    <row r="851" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -27938,7 +27965,7 @@
       <c r="AC851" s="3"/>
       <c r="AD851" s="3"/>
     </row>
-    <row r="852" ht="12.75" customHeight="1">
+    <row r="852" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -27970,7 +27997,7 @@
       <c r="AC852" s="3"/>
       <c r="AD852" s="3"/>
     </row>
-    <row r="853" ht="12.75" customHeight="1">
+    <row r="853" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -28002,7 +28029,7 @@
       <c r="AC853" s="3"/>
       <c r="AD853" s="3"/>
     </row>
-    <row r="854" ht="12.75" customHeight="1">
+    <row r="854" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -28034,7 +28061,7 @@
       <c r="AC854" s="3"/>
       <c r="AD854" s="3"/>
     </row>
-    <row r="855" ht="12.75" customHeight="1">
+    <row r="855" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -28066,7 +28093,7 @@
       <c r="AC855" s="3"/>
       <c r="AD855" s="3"/>
     </row>
-    <row r="856" ht="12.75" customHeight="1">
+    <row r="856" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -28098,7 +28125,7 @@
       <c r="AC856" s="3"/>
       <c r="AD856" s="3"/>
     </row>
-    <row r="857" ht="12.75" customHeight="1">
+    <row r="857" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -28130,7 +28157,7 @@
       <c r="AC857" s="3"/>
       <c r="AD857" s="3"/>
     </row>
-    <row r="858" ht="12.75" customHeight="1">
+    <row r="858" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -28162,7 +28189,7 @@
       <c r="AC858" s="3"/>
       <c r="AD858" s="3"/>
     </row>
-    <row r="859" ht="12.75" customHeight="1">
+    <row r="859" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -28194,7 +28221,7 @@
       <c r="AC859" s="3"/>
       <c r="AD859" s="3"/>
     </row>
-    <row r="860" ht="12.75" customHeight="1">
+    <row r="860" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -28226,7 +28253,7 @@
       <c r="AC860" s="3"/>
       <c r="AD860" s="3"/>
     </row>
-    <row r="861" ht="12.75" customHeight="1">
+    <row r="861" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -28258,7 +28285,7 @@
       <c r="AC861" s="3"/>
       <c r="AD861" s="3"/>
     </row>
-    <row r="862" ht="12.75" customHeight="1">
+    <row r="862" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -28290,7 +28317,7 @@
       <c r="AC862" s="3"/>
       <c r="AD862" s="3"/>
     </row>
-    <row r="863" ht="12.75" customHeight="1">
+    <row r="863" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -28322,7 +28349,7 @@
       <c r="AC863" s="3"/>
       <c r="AD863" s="3"/>
     </row>
-    <row r="864" ht="12.75" customHeight="1">
+    <row r="864" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -28354,7 +28381,7 @@
       <c r="AC864" s="3"/>
       <c r="AD864" s="3"/>
     </row>
-    <row r="865" ht="12.75" customHeight="1">
+    <row r="865" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -28386,7 +28413,7 @@
       <c r="AC865" s="3"/>
       <c r="AD865" s="3"/>
     </row>
-    <row r="866" ht="12.75" customHeight="1">
+    <row r="866" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -28418,7 +28445,7 @@
       <c r="AC866" s="3"/>
       <c r="AD866" s="3"/>
     </row>
-    <row r="867" ht="12.75" customHeight="1">
+    <row r="867" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -28450,7 +28477,7 @@
       <c r="AC867" s="3"/>
       <c r="AD867" s="3"/>
     </row>
-    <row r="868" ht="12.75" customHeight="1">
+    <row r="868" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -28482,7 +28509,7 @@
       <c r="AC868" s="3"/>
       <c r="AD868" s="3"/>
     </row>
-    <row r="869" ht="12.75" customHeight="1">
+    <row r="869" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -28514,7 +28541,7 @@
       <c r="AC869" s="3"/>
       <c r="AD869" s="3"/>
     </row>
-    <row r="870" ht="12.75" customHeight="1">
+    <row r="870" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -28546,7 +28573,7 @@
       <c r="AC870" s="3"/>
       <c r="AD870" s="3"/>
     </row>
-    <row r="871" ht="12.75" customHeight="1">
+    <row r="871" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -28578,7 +28605,7 @@
       <c r="AC871" s="3"/>
       <c r="AD871" s="3"/>
     </row>
-    <row r="872" ht="12.75" customHeight="1">
+    <row r="872" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -28610,7 +28637,7 @@
       <c r="AC872" s="3"/>
       <c r="AD872" s="3"/>
     </row>
-    <row r="873" ht="12.75" customHeight="1">
+    <row r="873" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -28642,7 +28669,7 @@
       <c r="AC873" s="3"/>
       <c r="AD873" s="3"/>
     </row>
-    <row r="874" ht="12.75" customHeight="1">
+    <row r="874" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -28674,7 +28701,7 @@
       <c r="AC874" s="3"/>
       <c r="AD874" s="3"/>
     </row>
-    <row r="875" ht="12.75" customHeight="1">
+    <row r="875" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -28706,7 +28733,7 @@
       <c r="AC875" s="3"/>
       <c r="AD875" s="3"/>
     </row>
-    <row r="876" ht="12.75" customHeight="1">
+    <row r="876" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -28738,7 +28765,7 @@
       <c r="AC876" s="3"/>
       <c r="AD876" s="3"/>
     </row>
-    <row r="877" ht="12.75" customHeight="1">
+    <row r="877" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -28770,7 +28797,7 @@
       <c r="AC877" s="3"/>
       <c r="AD877" s="3"/>
     </row>
-    <row r="878" ht="12.75" customHeight="1">
+    <row r="878" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -28802,7 +28829,7 @@
       <c r="AC878" s="3"/>
       <c r="AD878" s="3"/>
     </row>
-    <row r="879" ht="12.75" customHeight="1">
+    <row r="879" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -28834,7 +28861,7 @@
       <c r="AC879" s="3"/>
       <c r="AD879" s="3"/>
     </row>
-    <row r="880" ht="12.75" customHeight="1">
+    <row r="880" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -28866,7 +28893,7 @@
       <c r="AC880" s="3"/>
       <c r="AD880" s="3"/>
     </row>
-    <row r="881" ht="12.75" customHeight="1">
+    <row r="881" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -28898,7 +28925,7 @@
       <c r="AC881" s="3"/>
       <c r="AD881" s="3"/>
     </row>
-    <row r="882" ht="12.75" customHeight="1">
+    <row r="882" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -28930,7 +28957,7 @@
       <c r="AC882" s="3"/>
       <c r="AD882" s="3"/>
     </row>
-    <row r="883" ht="12.75" customHeight="1">
+    <row r="883" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -28962,7 +28989,7 @@
       <c r="AC883" s="3"/>
       <c r="AD883" s="3"/>
     </row>
-    <row r="884" ht="12.75" customHeight="1">
+    <row r="884" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -28994,7 +29021,7 @@
       <c r="AC884" s="3"/>
       <c r="AD884" s="3"/>
     </row>
-    <row r="885" ht="12.75" customHeight="1">
+    <row r="885" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -29026,7 +29053,7 @@
       <c r="AC885" s="3"/>
       <c r="AD885" s="3"/>
     </row>
-    <row r="886" ht="12.75" customHeight="1">
+    <row r="886" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -29058,7 +29085,7 @@
       <c r="AC886" s="3"/>
       <c r="AD886" s="3"/>
     </row>
-    <row r="887" ht="12.75" customHeight="1">
+    <row r="887" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -29090,7 +29117,7 @@
       <c r="AC887" s="3"/>
       <c r="AD887" s="3"/>
     </row>
-    <row r="888" ht="12.75" customHeight="1">
+    <row r="888" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -29122,7 +29149,7 @@
       <c r="AC888" s="3"/>
       <c r="AD888" s="3"/>
     </row>
-    <row r="889" ht="12.75" customHeight="1">
+    <row r="889" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -29154,7 +29181,7 @@
       <c r="AC889" s="3"/>
       <c r="AD889" s="3"/>
     </row>
-    <row r="890" ht="12.75" customHeight="1">
+    <row r="890" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -29186,7 +29213,7 @@
       <c r="AC890" s="3"/>
       <c r="AD890" s="3"/>
     </row>
-    <row r="891" ht="12.75" customHeight="1">
+    <row r="891" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -29218,7 +29245,7 @@
       <c r="AC891" s="3"/>
       <c r="AD891" s="3"/>
     </row>
-    <row r="892" ht="12.75" customHeight="1">
+    <row r="892" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -29250,7 +29277,7 @@
       <c r="AC892" s="3"/>
       <c r="AD892" s="3"/>
     </row>
-    <row r="893" ht="12.75" customHeight="1">
+    <row r="893" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -29282,7 +29309,7 @@
       <c r="AC893" s="3"/>
       <c r="AD893" s="3"/>
     </row>
-    <row r="894" ht="12.75" customHeight="1">
+    <row r="894" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -29314,7 +29341,7 @@
       <c r="AC894" s="3"/>
       <c r="AD894" s="3"/>
     </row>
-    <row r="895" ht="12.75" customHeight="1">
+    <row r="895" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -29346,7 +29373,7 @@
       <c r="AC895" s="3"/>
       <c r="AD895" s="3"/>
     </row>
-    <row r="896" ht="12.75" customHeight="1">
+    <row r="896" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -29378,7 +29405,7 @@
       <c r="AC896" s="3"/>
       <c r="AD896" s="3"/>
     </row>
-    <row r="897" ht="12.75" customHeight="1">
+    <row r="897" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -29410,7 +29437,7 @@
       <c r="AC897" s="3"/>
       <c r="AD897" s="3"/>
     </row>
-    <row r="898" ht="12.75" customHeight="1">
+    <row r="898" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -29442,7 +29469,7 @@
       <c r="AC898" s="3"/>
       <c r="AD898" s="3"/>
     </row>
-    <row r="899" ht="12.75" customHeight="1">
+    <row r="899" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -29474,7 +29501,7 @@
       <c r="AC899" s="3"/>
       <c r="AD899" s="3"/>
     </row>
-    <row r="900" ht="12.75" customHeight="1">
+    <row r="900" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -29506,7 +29533,7 @@
       <c r="AC900" s="3"/>
       <c r="AD900" s="3"/>
     </row>
-    <row r="901" ht="12.75" customHeight="1">
+    <row r="901" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -29538,7 +29565,7 @@
       <c r="AC901" s="3"/>
       <c r="AD901" s="3"/>
     </row>
-    <row r="902" ht="12.75" customHeight="1">
+    <row r="902" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -29570,7 +29597,7 @@
       <c r="AC902" s="3"/>
       <c r="AD902" s="3"/>
     </row>
-    <row r="903" ht="12.75" customHeight="1">
+    <row r="903" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -29602,7 +29629,7 @@
       <c r="AC903" s="3"/>
       <c r="AD903" s="3"/>
     </row>
-    <row r="904" ht="12.75" customHeight="1">
+    <row r="904" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -29634,7 +29661,7 @@
       <c r="AC904" s="3"/>
       <c r="AD904" s="3"/>
     </row>
-    <row r="905" ht="12.75" customHeight="1">
+    <row r="905" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -29666,7 +29693,7 @@
       <c r="AC905" s="3"/>
       <c r="AD905" s="3"/>
     </row>
-    <row r="906" ht="12.75" customHeight="1">
+    <row r="906" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -29698,7 +29725,7 @@
       <c r="AC906" s="3"/>
       <c r="AD906" s="3"/>
     </row>
-    <row r="907" ht="12.75" customHeight="1">
+    <row r="907" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -29730,7 +29757,7 @@
       <c r="AC907" s="3"/>
       <c r="AD907" s="3"/>
     </row>
-    <row r="908" ht="12.75" customHeight="1">
+    <row r="908" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -29762,7 +29789,7 @@
       <c r="AC908" s="3"/>
       <c r="AD908" s="3"/>
     </row>
-    <row r="909" ht="12.75" customHeight="1">
+    <row r="909" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -29794,7 +29821,7 @@
       <c r="AC909" s="3"/>
       <c r="AD909" s="3"/>
     </row>
-    <row r="910" ht="12.75" customHeight="1">
+    <row r="910" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -29826,7 +29853,7 @@
       <c r="AC910" s="3"/>
       <c r="AD910" s="3"/>
     </row>
-    <row r="911" ht="12.75" customHeight="1">
+    <row r="911" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -29858,7 +29885,7 @@
       <c r="AC911" s="3"/>
       <c r="AD911" s="3"/>
     </row>
-    <row r="912" ht="12.75" customHeight="1">
+    <row r="912" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -29890,7 +29917,7 @@
       <c r="AC912" s="3"/>
       <c r="AD912" s="3"/>
     </row>
-    <row r="913" ht="12.75" customHeight="1">
+    <row r="913" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -29922,7 +29949,7 @@
       <c r="AC913" s="3"/>
       <c r="AD913" s="3"/>
     </row>
-    <row r="914" ht="12.75" customHeight="1">
+    <row r="914" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -29954,7 +29981,7 @@
       <c r="AC914" s="3"/>
       <c r="AD914" s="3"/>
     </row>
-    <row r="915" ht="12.75" customHeight="1">
+    <row r="915" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -29986,7 +30013,7 @@
       <c r="AC915" s="3"/>
       <c r="AD915" s="3"/>
     </row>
-    <row r="916" ht="12.75" customHeight="1">
+    <row r="916" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -30018,7 +30045,7 @@
       <c r="AC916" s="3"/>
       <c r="AD916" s="3"/>
     </row>
-    <row r="917" ht="12.75" customHeight="1">
+    <row r="917" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -30050,7 +30077,7 @@
       <c r="AC917" s="3"/>
       <c r="AD917" s="3"/>
     </row>
-    <row r="918" ht="12.75" customHeight="1">
+    <row r="918" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -30082,7 +30109,7 @@
       <c r="AC918" s="3"/>
       <c r="AD918" s="3"/>
     </row>
-    <row r="919" ht="12.75" customHeight="1">
+    <row r="919" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -30114,7 +30141,7 @@
       <c r="AC919" s="3"/>
       <c r="AD919" s="3"/>
     </row>
-    <row r="920" ht="12.75" customHeight="1">
+    <row r="920" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -30146,7 +30173,7 @@
       <c r="AC920" s="3"/>
       <c r="AD920" s="3"/>
     </row>
-    <row r="921" ht="12.75" customHeight="1">
+    <row r="921" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -30178,7 +30205,7 @@
       <c r="AC921" s="3"/>
       <c r="AD921" s="3"/>
     </row>
-    <row r="922" ht="12.75" customHeight="1">
+    <row r="922" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -30210,7 +30237,7 @@
       <c r="AC922" s="3"/>
       <c r="AD922" s="3"/>
     </row>
-    <row r="923" ht="12.75" customHeight="1">
+    <row r="923" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -30242,7 +30269,7 @@
       <c r="AC923" s="3"/>
       <c r="AD923" s="3"/>
     </row>
-    <row r="924" ht="12.75" customHeight="1">
+    <row r="924" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -30274,7 +30301,7 @@
       <c r="AC924" s="3"/>
       <c r="AD924" s="3"/>
     </row>
-    <row r="925" ht="12.75" customHeight="1">
+    <row r="925" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -30306,7 +30333,7 @@
       <c r="AC925" s="3"/>
       <c r="AD925" s="3"/>
     </row>
-    <row r="926" ht="12.75" customHeight="1">
+    <row r="926" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -30338,7 +30365,7 @@
       <c r="AC926" s="3"/>
       <c r="AD926" s="3"/>
     </row>
-    <row r="927" ht="12.75" customHeight="1">
+    <row r="927" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -30370,7 +30397,7 @@
       <c r="AC927" s="3"/>
       <c r="AD927" s="3"/>
     </row>
-    <row r="928" ht="12.75" customHeight="1">
+    <row r="928" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -30402,7 +30429,7 @@
       <c r="AC928" s="3"/>
       <c r="AD928" s="3"/>
     </row>
-    <row r="929" ht="12.75" customHeight="1">
+    <row r="929" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -30434,7 +30461,7 @@
       <c r="AC929" s="3"/>
       <c r="AD929" s="3"/>
     </row>
-    <row r="930" ht="12.75" customHeight="1">
+    <row r="930" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -30466,7 +30493,7 @@
       <c r="AC930" s="3"/>
       <c r="AD930" s="3"/>
     </row>
-    <row r="931" ht="12.75" customHeight="1">
+    <row r="931" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -30498,7 +30525,7 @@
       <c r="AC931" s="3"/>
       <c r="AD931" s="3"/>
     </row>
-    <row r="932" ht="12.75" customHeight="1">
+    <row r="932" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -30530,7 +30557,7 @@
       <c r="AC932" s="3"/>
       <c r="AD932" s="3"/>
     </row>
-    <row r="933" ht="12.75" customHeight="1">
+    <row r="933" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -30562,7 +30589,7 @@
       <c r="AC933" s="3"/>
       <c r="AD933" s="3"/>
     </row>
-    <row r="934" ht="12.75" customHeight="1">
+    <row r="934" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -30594,7 +30621,7 @@
       <c r="AC934" s="3"/>
       <c r="AD934" s="3"/>
     </row>
-    <row r="935" ht="12.75" customHeight="1">
+    <row r="935" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -30626,7 +30653,7 @@
       <c r="AC935" s="3"/>
       <c r="AD935" s="3"/>
     </row>
-    <row r="936" ht="12.75" customHeight="1">
+    <row r="936" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -30658,7 +30685,7 @@
       <c r="AC936" s="3"/>
       <c r="AD936" s="3"/>
     </row>
-    <row r="937" ht="12.75" customHeight="1">
+    <row r="937" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -30690,7 +30717,7 @@
       <c r="AC937" s="3"/>
       <c r="AD937" s="3"/>
     </row>
-    <row r="938" ht="12.75" customHeight="1">
+    <row r="938" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -30722,7 +30749,7 @@
       <c r="AC938" s="3"/>
       <c r="AD938" s="3"/>
     </row>
-    <row r="939" ht="12.75" customHeight="1">
+    <row r="939" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -30754,7 +30781,7 @@
       <c r="AC939" s="3"/>
       <c r="AD939" s="3"/>
     </row>
-    <row r="940" ht="12.75" customHeight="1">
+    <row r="940" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -30786,7 +30813,7 @@
       <c r="AC940" s="3"/>
       <c r="AD940" s="3"/>
     </row>
-    <row r="941" ht="12.75" customHeight="1">
+    <row r="941" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -30818,7 +30845,7 @@
       <c r="AC941" s="3"/>
       <c r="AD941" s="3"/>
     </row>
-    <row r="942" ht="12.75" customHeight="1">
+    <row r="942" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -30850,7 +30877,7 @@
       <c r="AC942" s="3"/>
       <c r="AD942" s="3"/>
     </row>
-    <row r="943" ht="12.75" customHeight="1">
+    <row r="943" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -30882,7 +30909,7 @@
       <c r="AC943" s="3"/>
       <c r="AD943" s="3"/>
     </row>
-    <row r="944" ht="12.75" customHeight="1">
+    <row r="944" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -30914,7 +30941,7 @@
       <c r="AC944" s="3"/>
       <c r="AD944" s="3"/>
     </row>
-    <row r="945" ht="12.75" customHeight="1">
+    <row r="945" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -30946,7 +30973,7 @@
       <c r="AC945" s="3"/>
       <c r="AD945" s="3"/>
     </row>
-    <row r="946" ht="12.75" customHeight="1">
+    <row r="946" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -30978,7 +31005,7 @@
       <c r="AC946" s="3"/>
       <c r="AD946" s="3"/>
     </row>
-    <row r="947" ht="12.75" customHeight="1">
+    <row r="947" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -31010,7 +31037,7 @@
       <c r="AC947" s="3"/>
       <c r="AD947" s="3"/>
     </row>
-    <row r="948" ht="12.75" customHeight="1">
+    <row r="948" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -31042,7 +31069,7 @@
       <c r="AC948" s="3"/>
       <c r="AD948" s="3"/>
     </row>
-    <row r="949" ht="12.75" customHeight="1">
+    <row r="949" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -31074,7 +31101,7 @@
       <c r="AC949" s="3"/>
       <c r="AD949" s="3"/>
     </row>
-    <row r="950" ht="12.75" customHeight="1">
+    <row r="950" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -31106,7 +31133,7 @@
       <c r="AC950" s="3"/>
       <c r="AD950" s="3"/>
     </row>
-    <row r="951" ht="12.75" customHeight="1">
+    <row r="951" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -31138,7 +31165,7 @@
       <c r="AC951" s="3"/>
       <c r="AD951" s="3"/>
     </row>
-    <row r="952" ht="12.75" customHeight="1">
+    <row r="952" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -31170,7 +31197,7 @@
       <c r="AC952" s="3"/>
       <c r="AD952" s="3"/>
     </row>
-    <row r="953" ht="12.75" customHeight="1">
+    <row r="953" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -31202,7 +31229,7 @@
       <c r="AC953" s="3"/>
       <c r="AD953" s="3"/>
     </row>
-    <row r="954" ht="12.75" customHeight="1">
+    <row r="954" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -31234,7 +31261,7 @@
       <c r="AC954" s="3"/>
       <c r="AD954" s="3"/>
     </row>
-    <row r="955" ht="12.75" customHeight="1">
+    <row r="955" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -31266,7 +31293,7 @@
       <c r="AC955" s="3"/>
       <c r="AD955" s="3"/>
     </row>
-    <row r="956" ht="12.75" customHeight="1">
+    <row r="956" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -31298,7 +31325,7 @@
       <c r="AC956" s="3"/>
       <c r="AD956" s="3"/>
     </row>
-    <row r="957" ht="12.75" customHeight="1">
+    <row r="957" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -31330,7 +31357,7 @@
       <c r="AC957" s="3"/>
       <c r="AD957" s="3"/>
     </row>
-    <row r="958" ht="12.75" customHeight="1">
+    <row r="958" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -31362,7 +31389,7 @@
       <c r="AC958" s="3"/>
       <c r="AD958" s="3"/>
     </row>
-    <row r="959" ht="12.75" customHeight="1">
+    <row r="959" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -31394,7 +31421,7 @@
       <c r="AC959" s="3"/>
       <c r="AD959" s="3"/>
     </row>
-    <row r="960" ht="12.75" customHeight="1">
+    <row r="960" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -31426,7 +31453,7 @@
       <c r="AC960" s="3"/>
       <c r="AD960" s="3"/>
     </row>
-    <row r="961" ht="12.75" customHeight="1">
+    <row r="961" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -31458,7 +31485,7 @@
       <c r="AC961" s="3"/>
       <c r="AD961" s="3"/>
     </row>
-    <row r="962" ht="12.75" customHeight="1">
+    <row r="962" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -31490,7 +31517,7 @@
       <c r="AC962" s="3"/>
       <c r="AD962" s="3"/>
     </row>
-    <row r="963" ht="12.75" customHeight="1">
+    <row r="963" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -31522,7 +31549,7 @@
       <c r="AC963" s="3"/>
       <c r="AD963" s="3"/>
     </row>
-    <row r="964" ht="12.75" customHeight="1">
+    <row r="964" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -31554,7 +31581,7 @@
       <c r="AC964" s="3"/>
       <c r="AD964" s="3"/>
     </row>
-    <row r="965" ht="12.75" customHeight="1">
+    <row r="965" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -31586,7 +31613,7 @@
       <c r="AC965" s="3"/>
       <c r="AD965" s="3"/>
     </row>
-    <row r="966" ht="12.75" customHeight="1">
+    <row r="966" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -31618,7 +31645,7 @@
       <c r="AC966" s="3"/>
       <c r="AD966" s="3"/>
     </row>
-    <row r="967" ht="12.75" customHeight="1">
+    <row r="967" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -31650,7 +31677,7 @@
       <c r="AC967" s="3"/>
       <c r="AD967" s="3"/>
     </row>
-    <row r="968" ht="12.75" customHeight="1">
+    <row r="968" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -31682,7 +31709,7 @@
       <c r="AC968" s="3"/>
       <c r="AD968" s="3"/>
     </row>
-    <row r="969" ht="12.75" customHeight="1">
+    <row r="969" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -31714,7 +31741,7 @@
       <c r="AC969" s="3"/>
       <c r="AD969" s="3"/>
     </row>
-    <row r="970" ht="12.75" customHeight="1">
+    <row r="970" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -31746,7 +31773,7 @@
       <c r="AC970" s="3"/>
       <c r="AD970" s="3"/>
     </row>
-    <row r="971" ht="12.75" customHeight="1">
+    <row r="971" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -31778,7 +31805,7 @@
       <c r="AC971" s="3"/>
       <c r="AD971" s="3"/>
     </row>
-    <row r="972" ht="12.75" customHeight="1">
+    <row r="972" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -31810,7 +31837,7 @@
       <c r="AC972" s="3"/>
       <c r="AD972" s="3"/>
     </row>
-    <row r="973" ht="12.75" customHeight="1">
+    <row r="973" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -31842,7 +31869,7 @@
       <c r="AC973" s="3"/>
       <c r="AD973" s="3"/>
     </row>
-    <row r="974" ht="12.75" customHeight="1">
+    <row r="974" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -31874,7 +31901,7 @@
       <c r="AC974" s="3"/>
       <c r="AD974" s="3"/>
     </row>
-    <row r="975" ht="12.75" customHeight="1">
+    <row r="975" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -31906,7 +31933,7 @@
       <c r="AC975" s="3"/>
       <c r="AD975" s="3"/>
     </row>
-    <row r="976" ht="12.75" customHeight="1">
+    <row r="976" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -31938,7 +31965,7 @@
       <c r="AC976" s="3"/>
       <c r="AD976" s="3"/>
     </row>
-    <row r="977" ht="12.75" customHeight="1">
+    <row r="977" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -31970,7 +31997,7 @@
       <c r="AC977" s="3"/>
       <c r="AD977" s="3"/>
     </row>
-    <row r="978" ht="12.75" customHeight="1">
+    <row r="978" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -32002,7 +32029,7 @@
       <c r="AC978" s="3"/>
       <c r="AD978" s="3"/>
     </row>
-    <row r="979" ht="12.75" customHeight="1">
+    <row r="979" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -32034,7 +32061,7 @@
       <c r="AC979" s="3"/>
       <c r="AD979" s="3"/>
     </row>
-    <row r="980" ht="12.75" customHeight="1">
+    <row r="980" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -32066,7 +32093,7 @@
       <c r="AC980" s="3"/>
       <c r="AD980" s="3"/>
     </row>
-    <row r="981" ht="12.75" customHeight="1">
+    <row r="981" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -32098,7 +32125,7 @@
       <c r="AC981" s="3"/>
       <c r="AD981" s="3"/>
     </row>
-    <row r="982" ht="12.75" customHeight="1">
+    <row r="982" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -32130,7 +32157,7 @@
       <c r="AC982" s="3"/>
       <c r="AD982" s="3"/>
     </row>
-    <row r="983" ht="12.75" customHeight="1">
+    <row r="983" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -32162,7 +32189,7 @@
       <c r="AC983" s="3"/>
       <c r="AD983" s="3"/>
     </row>
-    <row r="984" ht="12.75" customHeight="1">
+    <row r="984" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -32194,7 +32221,7 @@
       <c r="AC984" s="3"/>
       <c r="AD984" s="3"/>
     </row>
-    <row r="985" ht="12.75" customHeight="1">
+    <row r="985" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -32226,7 +32253,7 @@
       <c r="AC985" s="3"/>
       <c r="AD985" s="3"/>
     </row>
-    <row r="986" ht="12.75" customHeight="1">
+    <row r="986" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -32258,7 +32285,7 @@
       <c r="AC986" s="3"/>
       <c r="AD986" s="3"/>
     </row>
-    <row r="987" ht="12.75" customHeight="1">
+    <row r="987" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -32290,7 +32317,7 @@
       <c r="AC987" s="3"/>
       <c r="AD987" s="3"/>
     </row>
-    <row r="988" ht="12.75" customHeight="1">
+    <row r="988" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -32322,7 +32349,7 @@
       <c r="AC988" s="3"/>
       <c r="AD988" s="3"/>
     </row>
-    <row r="989" ht="12.75" customHeight="1">
+    <row r="989" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -32354,7 +32381,7 @@
       <c r="AC989" s="3"/>
       <c r="AD989" s="3"/>
     </row>
-    <row r="990" ht="12.75" customHeight="1">
+    <row r="990" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -32386,7 +32413,7 @@
       <c r="AC990" s="3"/>
       <c r="AD990" s="3"/>
     </row>
-    <row r="991" ht="12.75" customHeight="1">
+    <row r="991" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -32418,7 +32445,7 @@
       <c r="AC991" s="3"/>
       <c r="AD991" s="3"/>
     </row>
-    <row r="992" ht="12.75" customHeight="1">
+    <row r="992" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -32450,7 +32477,7 @@
       <c r="AC992" s="3"/>
       <c r="AD992" s="3"/>
     </row>
-    <row r="993" ht="12.75" customHeight="1">
+    <row r="993" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -32482,7 +32509,7 @@
       <c r="AC993" s="3"/>
       <c r="AD993" s="3"/>
     </row>
-    <row r="994" ht="12.75" customHeight="1">
+    <row r="994" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -32514,7 +32541,7 @@
       <c r="AC994" s="3"/>
       <c r="AD994" s="3"/>
     </row>
-    <row r="995" ht="12.75" customHeight="1">
+    <row r="995" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -32546,7 +32573,7 @@
       <c r="AC995" s="3"/>
       <c r="AD995" s="3"/>
     </row>
-    <row r="996" ht="12.75" customHeight="1">
+    <row r="996" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -32578,7 +32605,7 @@
       <c r="AC996" s="3"/>
       <c r="AD996" s="3"/>
     </row>
-    <row r="997" ht="12.75" customHeight="1">
+    <row r="997" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -32610,7 +32637,7 @@
       <c r="AC997" s="3"/>
       <c r="AD997" s="3"/>
     </row>
-    <row r="998" ht="12.75" customHeight="1">
+    <row r="998" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -32643,9 +32670,7 @@
       <c r="AD998" s="3"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>